--- a/hand_sieved_data_modified.xlsx
+++ b/hand_sieved_data_modified.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15460"/>
+    <workbookView xWindow="9260" yWindow="440" windowWidth="16340" windowHeight="15460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="43">
   <si>
     <t>sample name</t>
   </si>
@@ -45,12 +45,6 @@
   </si>
   <si>
     <t>CRWD1_R2</t>
-  </si>
-  <si>
-    <t>CRWD2_R1</t>
-  </si>
-  <si>
-    <t>CRWD2_R2</t>
   </si>
   <si>
     <t>TAL2_R1</t>
@@ -83,31 +77,7 @@
     <t>tin (g)</t>
   </si>
   <si>
-    <t>1-2 mm</t>
-  </si>
-  <si>
-    <t>0.5-1 mm</t>
-  </si>
-  <si>
-    <t>&gt;2 mm</t>
-  </si>
-  <si>
-    <t>0.250-0.5 mm</t>
-  </si>
-  <si>
-    <t>0.125-0.250 mm</t>
-  </si>
-  <si>
-    <t>0.625-0.125 mm</t>
-  </si>
-  <si>
-    <t>&lt;0.0625 mm</t>
-  </si>
-  <si>
     <t>CRWD1_R3</t>
-  </si>
-  <si>
-    <t>CRWD2_R3</t>
   </si>
   <si>
     <t>TAL5_R1</t>
@@ -116,40 +86,7 @@
     <t>TAL5_R2</t>
   </si>
   <si>
-    <t>&gt; 2 mm</t>
-  </si>
-  <si>
-    <t>0.500-1 mm</t>
-  </si>
-  <si>
-    <t>0.25- 0.5 mm</t>
-  </si>
-  <si>
-    <t>0.125-0.25 mm</t>
-  </si>
-  <si>
-    <t>0.0625- 0.125 mm</t>
-  </si>
-  <si>
     <t>&lt;0.0625</t>
-  </si>
-  <si>
-    <t>TAL1_R1</t>
-  </si>
-  <si>
-    <t>TAL1_R2</t>
-  </si>
-  <si>
-    <t>TAL1_R3</t>
-  </si>
-  <si>
-    <t>MEFF2_R1</t>
-  </si>
-  <si>
-    <t>MEFF2_R2</t>
-  </si>
-  <si>
-    <t>MEFF2_R3</t>
   </si>
   <si>
     <t>DLBK3_R1</t>
@@ -159,6 +96,69 @@
   </si>
   <si>
     <t>DLBK3_R2</t>
+  </si>
+  <si>
+    <t>DLBK3w_R1</t>
+  </si>
+  <si>
+    <t>DLBK3w_R2</t>
+  </si>
+  <si>
+    <t>DLBK3w_R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;0.0625 </t>
+  </si>
+  <si>
+    <t>TAL5_R3</t>
+  </si>
+  <si>
+    <t>MEFFC2a_R1</t>
+  </si>
+  <si>
+    <t>MEFFC2a_R2</t>
+  </si>
+  <si>
+    <t>MEFFC2a_R3</t>
+  </si>
+  <si>
+    <t>MEFFC2w_R1</t>
+  </si>
+  <si>
+    <t>MEFFC2w_R2</t>
+  </si>
+  <si>
+    <t>MEFFC2w_R3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.250-0.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125-0.250 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.625-0.125 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.500-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.25- 0.5 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.125-0.25 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0625- 0.125 </t>
   </si>
 </sst>
 </file>
@@ -194,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -212,11 +212,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -225,7 +223,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -506,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA335"/>
+  <dimension ref="A1:AA336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
+      <selection activeCell="I157" sqref="I157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -538,16 +544,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -561,7 +567,7 @@
         <v>99.11</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E2">
         <v>2.1511999999999998</v>
@@ -573,22 +579,22 @@
         <f>F2-E2</f>
         <v>1.2094</v>
       </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-      <c r="AA2" s="7"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -601,7 +607,7 @@
         <v>99.11</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>2.1978</v>
@@ -613,7 +619,6 @@
         <f t="shared" ref="G3:G8" si="0">F3-E3</f>
         <v>1.0682</v>
       </c>
-      <c r="H3" s="6"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -641,7 +646,7 @@
         <v>99.11</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>2.2284999999999999</v>
@@ -653,7 +658,6 @@
         <f t="shared" si="0"/>
         <v>1.1261999999999999</v>
       </c>
-      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -666,7 +670,7 @@
         <v>99.11</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E5">
         <v>2.0701999999999998</v>
@@ -690,7 +694,7 @@
         <v>99.11</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E6">
         <v>2.0922999999999998</v>
@@ -714,7 +718,7 @@
         <v>99.11</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>2.1211000000000002</v>
@@ -738,7 +742,7 @@
         <v>99.11</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>417.65</v>
@@ -762,7 +766,7 @@
         <v>111.67</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>2.1981999999999999</v>
@@ -786,7 +790,7 @@
         <v>111.67</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>2.1175999999999999</v>
@@ -810,7 +814,7 @@
         <v>111.67</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E11">
         <v>2.1259000000000001</v>
@@ -834,7 +838,7 @@
         <v>111.67</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E12">
         <v>2.1259000000000001</v>
@@ -858,7 +862,7 @@
         <v>111.67</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>2.1770999999999998</v>
@@ -882,7 +886,7 @@
         <v>111.67</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E14">
         <v>2.1124000000000001</v>
@@ -906,7 +910,7 @@
         <v>111.67</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <f>16.86+16.68</f>
@@ -922,7 +926,7 @@
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -931,7 +935,7 @@
         <v>98.65</v>
       </c>
       <c r="D16" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E16">
         <v>2.1758999999999999</v>
@@ -946,7 +950,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -955,7 +959,7 @@
         <v>98.65</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E17">
         <v>2.1160999999999999</v>
@@ -970,7 +974,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -979,7 +983,7 @@
         <v>98.65</v>
       </c>
       <c r="D18" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>2.1345999999999998</v>
@@ -994,7 +998,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -1003,7 +1007,7 @@
         <v>98.65</v>
       </c>
       <c r="D19" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>2.1812</v>
@@ -1018,7 +1022,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>3</v>
@@ -1027,7 +1031,7 @@
         <v>98.65</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="E20">
         <v>2.1938</v>
@@ -1042,7 +1046,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B21">
         <v>3</v>
@@ -1051,7 +1055,7 @@
         <v>98.65</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E21">
         <v>2.0680999999999998</v>
@@ -1066,7 +1070,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B22">
         <v>3</v>
@@ -1075,7 +1079,7 @@
         <v>98.65</v>
       </c>
       <c r="D22" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>16.39</v>
@@ -1090,2530 +1094,2519 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B23">
         <v>1</v>
       </c>
       <c r="C23">
-        <v>99.92</v>
+        <v>50.152999999999999</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>38</v>
+      </c>
+      <c r="E23">
+        <v>2.2229999999999999</v>
+      </c>
+      <c r="F23">
+        <v>2.5274000000000001</v>
       </c>
       <c r="G23">
         <f>F23-E23</f>
-        <v>0</v>
+        <v>0.30440000000000023</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24">
-        <v>99.92</v>
+        <v>50.152999999999999</v>
       </c>
       <c r="D24" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="E24">
+        <v>2.2221000000000002</v>
+      </c>
+      <c r="F24">
+        <v>2.375</v>
       </c>
       <c r="G24">
         <f>F24-E24</f>
-        <v>0</v>
+        <v>0.15289999999999981</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>99.92</v>
+        <v>50.152999999999999</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="E25">
+        <v>2.2052999999999998</v>
+      </c>
+      <c r="F25">
+        <v>2.3592</v>
       </c>
       <c r="G25">
         <f>F25-E25</f>
-        <v>0</v>
+        <v>0.15390000000000015</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B26">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>99.92</v>
+        <v>50.152999999999999</v>
       </c>
       <c r="D26" t="s">
-        <v>20</v>
+        <v>40</v>
+      </c>
+      <c r="E26">
+        <v>2.2170999999999998</v>
+      </c>
+      <c r="F26">
+        <v>2.3675000000000002</v>
       </c>
       <c r="G26">
         <f>F26-E26</f>
-        <v>0</v>
+        <v>0.15040000000000031</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B27">
         <v>1</v>
       </c>
       <c r="C27">
-        <v>99.92</v>
+        <v>50.152999999999999</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>2.2166999999999999</v>
+      </c>
+      <c r="F27">
+        <v>3.3441999999999998</v>
       </c>
       <c r="G27">
         <f>F27-E27</f>
-        <v>0</v>
+        <v>1.1274999999999999</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B28">
         <v>1</v>
       </c>
       <c r="C28">
-        <v>99.92</v>
+        <v>50.152999999999999</v>
       </c>
       <c r="D28" t="s">
-        <v>22</v>
+        <v>42</v>
+      </c>
+      <c r="E28">
+        <v>2.2299000000000002</v>
+      </c>
+      <c r="F28">
+        <v>14.279199999999999</v>
       </c>
       <c r="G28">
         <f>F28-E28</f>
-        <v>0</v>
+        <v>12.049299999999999</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B29">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>99.92</v>
+        <v>50.152999999999999</v>
       </c>
       <c r="D29" t="s">
-        <v>23</v>
+        <v>18</v>
+      </c>
+      <c r="E29">
+        <v>12.12</v>
+      </c>
+      <c r="F29">
+        <v>18.309999999999999</v>
       </c>
       <c r="G29">
         <f>F29-E29</f>
-        <v>0</v>
+        <v>6.1899999999999995</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30">
-        <v>98.15</v>
+        <v>50.214300000000001</v>
       </c>
       <c r="D30" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E30">
-        <v>2.0270000000000001</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="F30">
-        <v>2.1779999999999999</v>
+        <v>2.3338000000000001</v>
       </c>
       <c r="G30">
         <f>F30-E30</f>
-        <v>0.1509999999999998</v>
+        <v>0.13080000000000025</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B31">
         <v>2</v>
       </c>
       <c r="C31">
-        <v>98.15</v>
+        <v>50.214300000000001</v>
       </c>
       <c r="D31" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E31">
-        <v>2.1150000000000002</v>
+        <v>2.2172000000000001</v>
       </c>
       <c r="F31">
-        <v>2.137</v>
+        <v>2.3959999999999999</v>
       </c>
       <c r="G31">
         <f>F31-E31</f>
-        <v>2.1999999999999797E-2</v>
+        <v>0.17879999999999985</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B32">
         <v>2</v>
       </c>
       <c r="C32">
-        <v>98.15</v>
+        <v>50.214300000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E32">
-        <v>2.0950000000000002</v>
+        <v>2.1997</v>
       </c>
       <c r="F32">
-        <v>2.1539999999999999</v>
+        <v>2.3469000000000002</v>
       </c>
       <c r="G32">
         <f>F32-E32</f>
-        <v>5.8999999999999719E-2</v>
+        <v>0.14720000000000022</v>
       </c>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B33">
         <v>2</v>
       </c>
       <c r="C33">
-        <v>98.15</v>
+        <v>50.214300000000001</v>
       </c>
       <c r="D33" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E33">
-        <v>2.141</v>
+        <v>2.2065000000000001</v>
       </c>
       <c r="F33">
-        <v>2.2570000000000001</v>
+        <v>2.3805999999999998</v>
       </c>
       <c r="G33">
         <f>F33-E33</f>
-        <v>0.1160000000000001</v>
+        <v>0.1740999999999997</v>
       </c>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B34">
         <v>2</v>
       </c>
       <c r="C34">
-        <v>98.15</v>
+        <v>50.214300000000001</v>
       </c>
       <c r="D34" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E34">
-        <v>2.141</v>
+        <v>2.2016</v>
       </c>
       <c r="F34">
-        <v>2.9704000000000002</v>
+        <v>3.3206000000000002</v>
       </c>
       <c r="G34">
         <f>F34-E34</f>
-        <v>0.82940000000000014</v>
-      </c>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7"/>
+        <v>1.1190000000000002</v>
+      </c>
+      <c r="P34" s="12"/>
       <c r="Q34" s="5"/>
-      <c r="S34" s="7"/>
-      <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
+      <c r="S34" s="14"/>
+      <c r="T34" s="14"/>
+      <c r="U34" s="14"/>
       <c r="V34" s="5"/>
-      <c r="X34" s="7"/>
-      <c r="Y34" s="7"/>
-      <c r="Z34" s="7"/>
+      <c r="X34" s="14"/>
+      <c r="Y34" s="14"/>
+      <c r="Z34" s="14"/>
     </row>
     <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35">
-        <v>98.15</v>
+        <v>50.214300000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E35">
-        <v>2.1920000000000002</v>
+        <v>2.2225999999999999</v>
       </c>
       <c r="F35">
-        <v>8.8351000000000006</v>
+        <v>13.8889</v>
       </c>
       <c r="G35">
         <f>F35-E35</f>
-        <v>6.6431000000000004</v>
-      </c>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+        <v>11.6663</v>
+      </c>
     </row>
     <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36">
-        <v>98.15</v>
+        <v>50.214300000000001</v>
       </c>
       <c r="D36" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E36">
-        <v>16.34</v>
+        <v>12.05</v>
       </c>
       <c r="F36">
-        <v>98.52</v>
+        <v>18.98</v>
       </c>
       <c r="G36">
         <f>F36-E36</f>
-        <v>82.179999999999993</v>
+        <v>6.93</v>
       </c>
     </row>
     <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B37">
         <v>3</v>
       </c>
       <c r="C37">
-        <v>100.83</v>
+        <v>49.9739</v>
       </c>
       <c r="D37" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E37">
-        <v>2.3201999999999998</v>
+        <v>2.2119</v>
       </c>
       <c r="F37">
-        <v>2.3416999999999999</v>
+        <v>3.3849999999999998</v>
       </c>
       <c r="G37">
         <f>F37-E37</f>
-        <v>2.1500000000000075E-2</v>
+        <v>1.1730999999999998</v>
       </c>
     </row>
     <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B38">
         <v>3</v>
       </c>
       <c r="C38">
-        <v>100.83</v>
+        <v>49.9739</v>
       </c>
       <c r="D38" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E38">
-        <v>2.1219000000000001</v>
+        <v>2.2153</v>
       </c>
       <c r="F38">
-        <v>2.1452</v>
+        <v>2.3927999999999998</v>
       </c>
       <c r="G38">
         <f>F38-E38</f>
-        <v>2.3299999999999876E-2</v>
+        <v>0.17749999999999977</v>
       </c>
     </row>
     <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B39">
         <v>3</v>
       </c>
       <c r="C39">
-        <v>100.83</v>
+        <v>49.9739</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="E39">
-        <v>2.1398000000000001</v>
+        <v>2.2149999999999999</v>
       </c>
       <c r="F39">
-        <v>2.1806999999999999</v>
+        <v>2.3490000000000002</v>
       </c>
       <c r="G39">
         <f>F39-E39</f>
-        <v>4.0899999999999714E-2</v>
+        <v>0.13400000000000034</v>
       </c>
     </row>
     <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40">
-        <v>100.83</v>
+        <v>49.9739</v>
       </c>
       <c r="D40" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="E40">
-        <v>2.0699999999999998</v>
+        <v>2.2242000000000002</v>
       </c>
       <c r="F40">
-        <v>2.1598000000000002</v>
+        <v>2.5215999999999998</v>
       </c>
       <c r="G40">
         <f>F40-E40</f>
-        <v>8.9800000000000324E-2</v>
+        <v>0.29739999999999966</v>
       </c>
     </row>
     <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B41">
         <v>3</v>
       </c>
       <c r="C41">
-        <v>100.83</v>
+        <v>49.9739</v>
       </c>
       <c r="D41" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="E41">
-        <v>2.0762</v>
+        <v>2.2006000000000001</v>
       </c>
       <c r="F41">
-        <v>2.6846000000000001</v>
+        <v>3.6427999999999998</v>
       </c>
       <c r="G41">
         <f>F41-E41</f>
-        <v>0.60840000000000005</v>
+        <v>1.4421999999999997</v>
       </c>
     </row>
     <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B42">
         <v>3</v>
       </c>
       <c r="C42">
-        <v>100.83</v>
+        <v>49.9739</v>
       </c>
       <c r="D42" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="E42">
-        <v>2.1141000000000001</v>
+        <v>2.2153</v>
       </c>
       <c r="F42">
-        <v>8.5690000000000008</v>
+        <v>15.960800000000001</v>
       </c>
       <c r="G42">
         <f>F42-E42</f>
-        <v>6.4549000000000003</v>
+        <v>13.7455</v>
       </c>
     </row>
     <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43">
-        <v>100.83</v>
+        <v>49.9739</v>
       </c>
       <c r="D43" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E43">
-        <v>16.63</v>
+        <v>12</v>
       </c>
       <c r="F43">
-        <v>102.33</v>
+        <v>16.260000000000002</v>
       </c>
       <c r="G43">
         <f>F43-E43</f>
-        <v>85.7</v>
+        <v>4.2600000000000016</v>
       </c>
     </row>
     <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44">
-        <v>50.08</v>
+        <v>50.152999999999999</v>
       </c>
       <c r="D44" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E44">
-        <v>2.2271999999999998</v>
+        <v>2.2229999999999999</v>
       </c>
       <c r="F44">
-        <v>2.7585999999999999</v>
+        <v>2.5274000000000001</v>
       </c>
       <c r="G44">
-        <f>F44-E44</f>
-        <v>0.53140000000000009</v>
+        <f t="shared" ref="G44:G64" si="3">F44-E44</f>
+        <v>0.30440000000000023</v>
       </c>
     </row>
     <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
       <c r="C45">
-        <v>50.08</v>
+        <v>50.152999999999999</v>
       </c>
       <c r="D45" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E45">
-        <v>2.1997</v>
+        <v>2.2221000000000002</v>
       </c>
       <c r="F45">
-        <v>9.9289000000000005</v>
+        <v>2.375</v>
       </c>
       <c r="G45">
-        <f>F45-E45</f>
-        <v>7.7292000000000005</v>
+        <f t="shared" si="3"/>
+        <v>0.15289999999999981</v>
       </c>
     </row>
     <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>50.08</v>
+        <v>50.152999999999999</v>
       </c>
       <c r="D46" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E46">
-        <v>2.1966999999999999</v>
+        <v>2.2052999999999998</v>
       </c>
       <c r="F46">
-        <v>31.273700000000002</v>
+        <v>2.3592</v>
       </c>
       <c r="G46">
-        <f>F46-E46</f>
-        <v>29.077000000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.15390000000000015</v>
       </c>
     </row>
     <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>50.08</v>
+        <v>50.152999999999999</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E47">
-        <v>2.2530000000000001</v>
+        <v>2.2170999999999998</v>
       </c>
       <c r="F47">
-        <v>7.5494000000000003</v>
+        <v>2.3675000000000002</v>
       </c>
       <c r="G47">
-        <f>F47-E47</f>
-        <v>5.2964000000000002</v>
+        <f t="shared" si="3"/>
+        <v>0.15040000000000031</v>
       </c>
     </row>
     <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>50.08</v>
+        <v>50.152999999999999</v>
       </c>
       <c r="D48" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E48">
-        <v>2.1907000000000001</v>
+        <v>2.2166999999999999</v>
       </c>
       <c r="F48">
-        <v>3.2311000000000001</v>
+        <v>3.3441999999999998</v>
       </c>
       <c r="G48">
-        <f>F48-E48</f>
-        <v>1.0404</v>
+        <f t="shared" si="3"/>
+        <v>1.1274999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>50.08</v>
+        <v>50.152999999999999</v>
       </c>
       <c r="D49" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E49">
-        <v>2.3243999999999998</v>
+        <v>2.2299000000000002</v>
       </c>
       <c r="F49">
-        <v>2.5724</v>
+        <v>14.279199999999999</v>
       </c>
       <c r="G49">
-        <f>F49-E49</f>
-        <v>0.24800000000000022</v>
+        <f t="shared" si="3"/>
+        <v>12.049299999999999</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
       <c r="C50">
-        <v>50.08</v>
+        <v>50.152999999999999</v>
       </c>
       <c r="D50" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E50">
-        <v>12.06</v>
+        <v>12.12</v>
       </c>
       <c r="F50">
-        <v>14.4</v>
+        <v>18.309999999999999</v>
       </c>
       <c r="G50">
-        <f>F50-E50</f>
-        <v>2.34</v>
+        <f t="shared" si="3"/>
+        <v>6.1899999999999995</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
+        <v>23</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>50.214300000000001</v>
+      </c>
+      <c r="D51" t="s">
         <v>38</v>
       </c>
-      <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51">
-        <v>50.03</v>
-      </c>
-      <c r="D51" t="s">
-        <v>28</v>
-      </c>
       <c r="E51">
-        <v>2.2406999999999999</v>
+        <v>2.2029999999999998</v>
       </c>
       <c r="F51">
-        <v>3.1456</v>
+        <v>2.3338000000000001</v>
       </c>
       <c r="G51">
-        <f>F51-E51</f>
-        <v>0.90490000000000004</v>
+        <f t="shared" si="3"/>
+        <v>0.13080000000000025</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B52">
         <v>2</v>
       </c>
       <c r="C52">
-        <v>50.03</v>
+        <v>50.214300000000001</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E52">
-        <v>2.2349999999999999</v>
+        <v>2.2172000000000001</v>
       </c>
       <c r="F52">
-        <v>11.8307</v>
+        <v>2.3959999999999999</v>
       </c>
       <c r="G52">
-        <f>F52-E52</f>
-        <v>9.5957000000000008</v>
+        <f t="shared" si="3"/>
+        <v>0.17879999999999985</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <v>2</v>
       </c>
       <c r="C53">
-        <v>50.03</v>
+        <v>50.214300000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E53">
-        <v>2.2010000000000001</v>
+        <v>2.1997</v>
       </c>
       <c r="F53">
-        <v>29.123699999999999</v>
+        <v>2.3469000000000002</v>
       </c>
       <c r="G53">
-        <f>F53-E53</f>
-        <v>26.922699999999999</v>
+        <f t="shared" si="3"/>
+        <v>0.14720000000000022</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B54">
         <v>2</v>
       </c>
       <c r="C54">
-        <v>50.03</v>
+        <v>50.214300000000001</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E54">
-        <v>2.2557999999999998</v>
+        <v>2.2065000000000001</v>
       </c>
       <c r="F54">
-        <v>7.2332999999999998</v>
+        <v>2.3805999999999998</v>
       </c>
       <c r="G54">
-        <f>F54-E54</f>
-        <v>4.9775</v>
+        <f t="shared" si="3"/>
+        <v>0.1740999999999997</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B55">
         <v>2</v>
       </c>
       <c r="C55">
-        <v>50.03</v>
+        <v>50.214300000000001</v>
       </c>
       <c r="D55" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E55">
-        <v>2.2364999999999999</v>
+        <v>2.2016</v>
       </c>
       <c r="F55">
-        <v>2.8180000000000001</v>
+        <v>3.3206000000000002</v>
       </c>
       <c r="G55">
-        <f>F55-E55</f>
-        <v>0.58150000000000013</v>
+        <f t="shared" si="3"/>
+        <v>1.1190000000000002</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56">
-        <v>50.03</v>
+        <v>50.214300000000001</v>
       </c>
       <c r="D56" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E56">
-        <v>2.2368000000000001</v>
+        <v>2.2225999999999999</v>
       </c>
       <c r="F56">
-        <v>2.4218000000000002</v>
+        <v>13.8889</v>
       </c>
       <c r="G56">
-        <f>F56-E56</f>
-        <v>0.18500000000000005</v>
+        <f t="shared" si="3"/>
+        <v>11.6663</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="B57">
         <v>2</v>
       </c>
       <c r="C57">
-        <v>50.03</v>
+        <v>50.214300000000001</v>
       </c>
       <c r="D57" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E57">
         <v>12.05</v>
       </c>
       <c r="F57">
-        <v>15.76</v>
+        <v>18.98</v>
       </c>
       <c r="G57">
-        <f>F57-E57</f>
-        <v>3.7099999999999991</v>
+        <f t="shared" si="3"/>
+        <v>6.93</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
       <c r="C58">
-        <v>50.05</v>
+        <v>49.9739</v>
       </c>
       <c r="D58" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E58">
-        <v>1.2595000000000001</v>
+        <v>2.2119</v>
       </c>
       <c r="F58">
-        <v>1.8945000000000001</v>
+        <v>3.3849999999999998</v>
       </c>
       <c r="G58">
-        <f>F58-E58</f>
-        <v>0.63500000000000001</v>
+        <f t="shared" si="3"/>
+        <v>1.1730999999999998</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
       <c r="C59">
-        <v>50.05</v>
+        <v>49.9739</v>
       </c>
       <c r="D59" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E59">
-        <v>1.2636000000000001</v>
+        <v>2.2153</v>
       </c>
       <c r="F59">
-        <v>10.7417</v>
+        <v>2.3927999999999998</v>
       </c>
       <c r="G59">
-        <f>F59-E59</f>
-        <v>9.4780999999999995</v>
+        <f t="shared" si="3"/>
+        <v>0.17749999999999977</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
+        <v>24</v>
+      </c>
+      <c r="B60">
+        <v>3</v>
+      </c>
+      <c r="C60">
+        <v>49.9739</v>
+      </c>
+      <c r="D60" t="s">
         <v>39</v>
       </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-      <c r="C60">
-        <v>50.05</v>
-      </c>
-      <c r="D60" t="s">
-        <v>29</v>
-      </c>
       <c r="E60">
-        <v>2.1850999999999998</v>
+        <v>2.2149999999999999</v>
       </c>
       <c r="F60">
-        <v>27.6266</v>
+        <v>2.3490000000000002</v>
       </c>
       <c r="G60">
-        <f>F60-E60</f>
-        <v>25.441500000000001</v>
+        <f t="shared" si="3"/>
+        <v>0.13400000000000034</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B61">
         <v>3</v>
       </c>
       <c r="C61">
-        <v>50.05</v>
+        <v>49.9739</v>
       </c>
       <c r="D61" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E61">
-        <v>2.1972999999999998</v>
+        <v>2.2242000000000002</v>
       </c>
       <c r="F61">
-        <v>11.6435</v>
+        <v>2.5215999999999998</v>
       </c>
       <c r="G61">
-        <f>F61-E61</f>
-        <v>9.4461999999999993</v>
+        <f t="shared" si="3"/>
+        <v>0.29739999999999966</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B62">
         <v>3</v>
       </c>
       <c r="C62">
-        <v>50.05</v>
+        <v>49.9739</v>
       </c>
       <c r="D62" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E62">
-        <v>2.2465999999999999</v>
+        <v>2.2006000000000001</v>
       </c>
       <c r="F62">
-        <v>2.5966999999999998</v>
+        <v>3.6427999999999998</v>
       </c>
       <c r="G62">
-        <f>F62-E62</f>
-        <v>0.35009999999999986</v>
+        <f t="shared" si="3"/>
+        <v>1.4421999999999997</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B63">
         <v>3</v>
       </c>
       <c r="C63">
-        <v>50.05</v>
+        <v>49.9739</v>
       </c>
       <c r="D63" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E63">
-        <v>1.2765</v>
+        <v>2.2153</v>
       </c>
       <c r="F63">
-        <v>1.6495</v>
+        <v>15.960800000000001</v>
       </c>
       <c r="G63">
-        <f>F63-E63</f>
-        <v>0.373</v>
+        <f t="shared" si="3"/>
+        <v>13.7455</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="B64">
         <v>3</v>
       </c>
       <c r="C64">
-        <v>50.05</v>
+        <v>49.9739</v>
       </c>
       <c r="D64" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E64">
-        <v>12.13</v>
+        <v>12</v>
       </c>
       <c r="F64">
-        <v>15.92</v>
+        <v>16.260000000000002</v>
       </c>
       <c r="G64">
-        <f>F64-E64</f>
-        <v>3.7899999999999991</v>
+        <f t="shared" si="3"/>
+        <v>4.2600000000000016</v>
       </c>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B65">
         <v>1</v>
       </c>
       <c r="C65">
-        <v>50.152999999999999</v>
+        <v>50.08</v>
       </c>
       <c r="D65" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E65">
-        <v>2.2229999999999999</v>
+        <v>2.2271999999999998</v>
       </c>
       <c r="F65">
-        <v>2.5274000000000001</v>
+        <v>2.7585999999999999</v>
       </c>
       <c r="G65">
-        <f>F65-E65</f>
-        <v>0.30440000000000023</v>
+        <f t="shared" ref="G65:G75" si="4">F65-E65</f>
+        <v>0.53140000000000009</v>
       </c>
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B66">
         <v>1</v>
       </c>
       <c r="C66">
-        <v>50.152999999999999</v>
+        <v>50.08</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E66">
-        <v>2.2221000000000002</v>
+        <v>2.1997</v>
       </c>
       <c r="F66">
-        <v>2.375</v>
+        <v>9.9289000000000005</v>
       </c>
       <c r="G66">
-        <f>F66-E66</f>
-        <v>0.15289999999999981</v>
+        <f t="shared" si="4"/>
+        <v>7.7292000000000005</v>
       </c>
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B67">
         <v>1</v>
       </c>
       <c r="C67">
-        <v>50.152999999999999</v>
+        <v>50.08</v>
       </c>
       <c r="D67" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E67">
-        <v>2.2052999999999998</v>
+        <v>2.1966999999999999</v>
       </c>
       <c r="F67">
-        <v>2.3592</v>
+        <v>31.273700000000002</v>
       </c>
       <c r="G67">
-        <f>F67-E67</f>
-        <v>0.15390000000000015</v>
+        <f t="shared" si="4"/>
+        <v>29.077000000000002</v>
       </c>
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
+        <v>27</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>50.08</v>
+      </c>
+      <c r="D68" t="s">
         <v>40</v>
       </c>
-      <c r="B68">
-        <v>1</v>
-      </c>
-      <c r="C68">
-        <v>50.152999999999999</v>
-      </c>
-      <c r="D68" t="s">
-        <v>30</v>
-      </c>
       <c r="E68">
-        <v>2.2170999999999998</v>
+        <v>2.2530000000000001</v>
       </c>
       <c r="F68">
-        <v>2.3675000000000002</v>
+        <v>7.5494000000000003</v>
       </c>
       <c r="G68">
-        <f>F68-E68</f>
-        <v>0.15040000000000031</v>
+        <f t="shared" si="4"/>
+        <v>5.2964000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B69">
         <v>1</v>
       </c>
       <c r="C69">
-        <v>50.152999999999999</v>
+        <v>50.08</v>
       </c>
       <c r="D69" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E69">
-        <v>2.2166999999999999</v>
+        <v>2.1907000000000001</v>
       </c>
       <c r="F69">
-        <v>3.3441999999999998</v>
+        <v>3.2311000000000001</v>
       </c>
       <c r="G69">
-        <f>F69-E69</f>
-        <v>1.1274999999999999</v>
+        <f t="shared" si="4"/>
+        <v>1.0404</v>
       </c>
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B70">
         <v>1</v>
       </c>
       <c r="C70">
-        <v>50.152999999999999</v>
+        <v>50.08</v>
       </c>
       <c r="D70" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E70">
-        <v>2.2299000000000002</v>
+        <v>2.3243999999999998</v>
       </c>
       <c r="F70">
-        <v>14.279199999999999</v>
+        <v>2.5724</v>
       </c>
       <c r="G70">
-        <f>F70-E70</f>
-        <v>12.049299999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.24800000000000022</v>
       </c>
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="B71">
         <v>1</v>
       </c>
       <c r="C71">
-        <v>50.152999999999999</v>
+        <v>50.08</v>
       </c>
       <c r="D71" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E71">
-        <v>12.12</v>
+        <v>12.06</v>
       </c>
       <c r="F71">
-        <v>18.309999999999999</v>
+        <v>14.4</v>
       </c>
       <c r="G71">
-        <f>F71-E71</f>
-        <v>6.1899999999999995</v>
+        <f t="shared" si="4"/>
+        <v>2.34</v>
       </c>
     </row>
     <row r="72" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B72">
         <v>2</v>
       </c>
       <c r="C72">
-        <v>50.214300000000001</v>
+        <v>50.03</v>
       </c>
       <c r="D72" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E72">
-        <v>2.2029999999999998</v>
+        <v>2.2406999999999999</v>
       </c>
       <c r="F72">
-        <v>2.3338000000000001</v>
+        <v>3.1456</v>
       </c>
       <c r="G72">
-        <f>F72-E72</f>
-        <v>0.13080000000000025</v>
+        <f t="shared" si="4"/>
+        <v>0.90490000000000004</v>
       </c>
     </row>
     <row r="73" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B73">
         <v>2</v>
       </c>
       <c r="C73">
-        <v>50.214300000000001</v>
+        <v>50.03</v>
       </c>
       <c r="D73" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E73">
-        <v>2.2172000000000001</v>
+        <v>2.2349999999999999</v>
       </c>
       <c r="F73">
-        <v>2.3959999999999999</v>
+        <v>11.8307</v>
       </c>
       <c r="G73">
-        <f>F73-E73</f>
-        <v>0.17879999999999985</v>
+        <f t="shared" si="4"/>
+        <v>9.5957000000000008</v>
       </c>
     </row>
     <row r="74" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B74">
         <v>2</v>
       </c>
       <c r="C74">
-        <v>50.214300000000001</v>
+        <v>50.03</v>
       </c>
       <c r="D74" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E74">
-        <v>2.1997</v>
+        <v>2.2010000000000001</v>
       </c>
       <c r="F74">
-        <v>2.3469000000000002</v>
+        <v>29.123699999999999</v>
       </c>
       <c r="G74">
-        <f>F74-E74</f>
-        <v>0.14720000000000022</v>
+        <f t="shared" si="4"/>
+        <v>26.922699999999999</v>
       </c>
     </row>
     <row r="75" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B75">
         <v>2</v>
       </c>
       <c r="C75">
-        <v>50.214300000000001</v>
+        <v>50.03</v>
       </c>
       <c r="D75" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E75">
-        <v>2.2065000000000001</v>
+        <v>2.2557999999999998</v>
       </c>
       <c r="F75">
-        <v>2.3805999999999998</v>
+        <v>7.2332999999999998</v>
       </c>
       <c r="G75">
-        <f>F75-E75</f>
-        <v>0.1740999999999997</v>
+        <f t="shared" si="4"/>
+        <v>4.9775</v>
       </c>
     </row>
     <row r="76" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
       <c r="C76">
-        <v>50.214300000000001</v>
+        <v>50.03</v>
       </c>
       <c r="D76" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E76">
-        <v>2.2016</v>
+        <v>2.2364999999999999</v>
       </c>
       <c r="F76">
-        <v>3.3206000000000002</v>
+        <v>2.8180000000000001</v>
       </c>
       <c r="G76">
         <f>F76-E76</f>
-        <v>1.1190000000000002</v>
+        <v>0.58150000000000013</v>
       </c>
     </row>
     <row r="77" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>50.03</v>
+      </c>
+      <c r="D77" t="s">
         <v>42</v>
       </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77">
-        <v>50.214300000000001</v>
-      </c>
-      <c r="D77" t="s">
-        <v>32</v>
-      </c>
       <c r="E77">
-        <v>2.2225999999999999</v>
+        <v>2.2368000000000001</v>
       </c>
       <c r="F77">
-        <v>13.8889</v>
+        <v>2.4218000000000002</v>
       </c>
       <c r="G77">
         <f>F77-E77</f>
-        <v>11.6663</v>
+        <v>0.18500000000000005</v>
       </c>
     </row>
     <row r="78" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B78">
         <v>2</v>
       </c>
       <c r="C78">
-        <v>50.214300000000001</v>
+        <v>50.03</v>
       </c>
       <c r="D78" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E78">
         <v>12.05</v>
       </c>
       <c r="F78">
-        <v>18.98</v>
+        <v>15.76</v>
       </c>
       <c r="G78">
         <f>F78-E78</f>
-        <v>6.93</v>
-      </c>
+        <v>3.7099999999999991</v>
+      </c>
+      <c r="H78" s="2"/>
     </row>
     <row r="79" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B79">
         <v>3</v>
       </c>
       <c r="C79">
-        <v>49.9739</v>
+        <v>50.05</v>
       </c>
       <c r="D79" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E79">
-        <v>2.2119</v>
+        <v>1.2595000000000001</v>
       </c>
       <c r="F79">
-        <v>3.3849999999999998</v>
+        <v>1.8945000000000001</v>
       </c>
       <c r="G79">
         <f>F79-E79</f>
-        <v>1.1730999999999998</v>
+        <v>0.63500000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B80">
         <v>3</v>
       </c>
       <c r="C80">
-        <v>49.9739</v>
+        <v>50.05</v>
       </c>
       <c r="D80" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E80">
-        <v>2.2153</v>
+        <v>1.2636000000000001</v>
       </c>
       <c r="F80">
-        <v>2.3927999999999998</v>
+        <v>10.7417</v>
       </c>
       <c r="G80">
         <f>F80-E80</f>
-        <v>0.17749999999999977</v>
-      </c>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
-      <c r="L80" s="8"/>
-      <c r="M80" s="8"/>
-      <c r="R80" s="8"/>
-      <c r="W80" s="8"/>
+        <v>9.4780999999999995</v>
+      </c>
+      <c r="R80" s="7"/>
+      <c r="W80" s="7"/>
     </row>
     <row r="81" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B81">
         <v>3</v>
       </c>
       <c r="C81">
-        <v>49.9739</v>
+        <v>50.05</v>
       </c>
       <c r="D81" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E81">
-        <v>2.2149999999999999</v>
+        <v>2.1850999999999998</v>
       </c>
       <c r="F81">
-        <v>2.3490000000000002</v>
+        <v>27.6266</v>
       </c>
       <c r="G81">
         <f>F81-E81</f>
-        <v>0.13400000000000034</v>
-      </c>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="W81" s="8"/>
+        <v>25.441500000000001</v>
+      </c>
+      <c r="R81" s="7"/>
+      <c r="W81" s="7"/>
     </row>
     <row r="82" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B82">
         <v>3</v>
       </c>
       <c r="C82">
-        <v>49.9739</v>
+        <v>50.05</v>
       </c>
       <c r="D82" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E82">
-        <v>2.2242000000000002</v>
+        <v>2.1972999999999998</v>
       </c>
       <c r="F82">
-        <v>2.5215999999999998</v>
+        <v>11.6435</v>
       </c>
       <c r="G82">
         <f>F82-E82</f>
-        <v>0.29739999999999966</v>
-      </c>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
-      <c r="L82" s="8"/>
-      <c r="M82" s="8"/>
-      <c r="R82" s="8"/>
-      <c r="W82" s="8"/>
+        <v>9.4461999999999993</v>
+      </c>
+      <c r="R82" s="7"/>
+      <c r="W82" s="7"/>
     </row>
     <row r="83" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
+        <v>29</v>
+      </c>
+      <c r="B83">
+        <v>3</v>
+      </c>
+      <c r="C83">
+        <v>50.05</v>
+      </c>
+      <c r="D83" t="s">
         <v>41</v>
       </c>
-      <c r="B83">
-        <v>3</v>
-      </c>
-      <c r="C83">
-        <v>49.9739</v>
-      </c>
-      <c r="D83" t="s">
-        <v>31</v>
-      </c>
       <c r="E83">
-        <v>2.2006000000000001</v>
+        <v>2.2465999999999999</v>
       </c>
       <c r="F83">
-        <v>3.6427999999999998</v>
+        <v>2.5966999999999998</v>
       </c>
       <c r="G83">
         <f>F83-E83</f>
-        <v>1.4421999999999997</v>
-      </c>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
-      <c r="L83" s="8"/>
-      <c r="M83" s="8"/>
-      <c r="R83" s="8"/>
-      <c r="W83" s="8"/>
+        <v>0.35009999999999986</v>
+      </c>
+      <c r="R83" s="7"/>
+      <c r="W83" s="7"/>
     </row>
     <row r="84" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B84">
         <v>3</v>
       </c>
       <c r="C84">
-        <v>49.9739</v>
+        <v>50.05</v>
       </c>
       <c r="D84" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E84">
-        <v>2.2153</v>
+        <v>1.2765</v>
       </c>
       <c r="F84">
-        <v>15.960800000000001</v>
+        <v>1.6495</v>
       </c>
       <c r="G84">
         <f>F84-E84</f>
-        <v>13.7455</v>
-      </c>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
-      <c r="L84" s="8"/>
-      <c r="M84" s="8"/>
-      <c r="R84" s="8"/>
-      <c r="W84" s="8"/>
+        <v>0.373</v>
+      </c>
+      <c r="R84" s="7"/>
+      <c r="W84" s="7"/>
     </row>
     <row r="85" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B85">
         <v>3</v>
       </c>
       <c r="C85">
-        <v>49.9739</v>
+        <v>50.05</v>
       </c>
       <c r="D85" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E85">
-        <v>12</v>
+        <v>12.13</v>
       </c>
       <c r="F85">
-        <v>16.260000000000002</v>
+        <v>15.92</v>
       </c>
       <c r="G85">
         <f>F85-E85</f>
-        <v>4.2600000000000016</v>
-      </c>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
-      <c r="L85" s="8"/>
-      <c r="M85" s="8"/>
-      <c r="R85" s="8"/>
-      <c r="W85" s="8"/>
+        <v>3.7899999999999991</v>
+      </c>
+      <c r="R85" s="7"/>
+      <c r="W85" s="7"/>
     </row>
     <row r="86" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A86" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B86" s="8">
-        <v>1</v>
-      </c>
-      <c r="C86" s="8">
-        <v>99.78</v>
-      </c>
-      <c r="D86" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E86" s="8">
-        <v>2.1943000000000001</v>
-      </c>
-      <c r="F86" s="8">
-        <v>2.2844000000000002</v>
-      </c>
-      <c r="G86" s="8">
+      <c r="A86" t="s">
+        <v>30</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>50.08</v>
+      </c>
+      <c r="D86" t="s">
+        <v>38</v>
+      </c>
+      <c r="E86">
+        <v>2.2271999999999998</v>
+      </c>
+      <c r="F86">
+        <v>2.7585999999999999</v>
+      </c>
+      <c r="G86">
         <f>F86-E86</f>
-        <v>9.0100000000000069E-2</v>
-      </c>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
-      <c r="L86" s="8"/>
-      <c r="M86" s="8"/>
-      <c r="R86" s="8"/>
-      <c r="W86" s="8"/>
+        <v>0.53140000000000009</v>
+      </c>
+      <c r="R86" s="7"/>
+      <c r="W86" s="7"/>
     </row>
     <row r="87" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B87" s="8">
-        <v>1</v>
-      </c>
-      <c r="C87" s="8">
-        <v>99.78</v>
-      </c>
-      <c r="D87" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E87" s="8">
-        <v>2.2183000000000002</v>
-      </c>
-      <c r="F87" s="8">
-        <v>2.7017000000000002</v>
-      </c>
-      <c r="G87" s="8">
+      <c r="A87" t="s">
+        <v>30</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>50.08</v>
+      </c>
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87">
+        <v>2.1997</v>
+      </c>
+      <c r="F87">
+        <v>9.9289000000000005</v>
+      </c>
+      <c r="G87">
         <f>F87-E87</f>
-        <v>0.48340000000000005</v>
-      </c>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
-      <c r="L87" s="8"/>
-      <c r="M87" s="8"/>
-      <c r="R87" s="8"/>
-      <c r="W87" s="8"/>
+        <v>7.7292000000000005</v>
+      </c>
+      <c r="R87" s="7"/>
+      <c r="W87" s="7"/>
     </row>
     <row r="88" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A88" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B88" s="12">
-        <v>1</v>
-      </c>
-      <c r="C88" s="12">
-        <v>99.78</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="E88" s="12"/>
-      <c r="F88" s="12"/>
-      <c r="G88" s="12"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="8"/>
-      <c r="M88" s="8"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="8"/>
-      <c r="P88" s="8"/>
-      <c r="Q88" s="8"/>
-      <c r="R88" s="8"/>
-      <c r="W88" s="8"/>
+      <c r="A88" t="s">
+        <v>30</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>50.08</v>
+      </c>
+      <c r="D88" t="s">
+        <v>39</v>
+      </c>
+      <c r="E88">
+        <v>2.1966999999999999</v>
+      </c>
+      <c r="F88">
+        <v>31.273700000000002</v>
+      </c>
+      <c r="G88">
+        <f>F88-E88</f>
+        <v>29.077000000000002</v>
+      </c>
+      <c r="R88" s="7"/>
+      <c r="W88" s="7"/>
     </row>
     <row r="89" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A89" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B89" s="8">
-        <v>1</v>
-      </c>
-      <c r="C89" s="8">
-        <v>99.78</v>
-      </c>
-      <c r="D89" s="8" t="s">
+      <c r="A89" t="s">
         <v>30</v>
       </c>
-      <c r="E89" s="8">
-        <v>2.2025999999999999</v>
-      </c>
-      <c r="F89" s="8">
-        <v>20.481999999999999</v>
-      </c>
-      <c r="G89" s="8">
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>50.08</v>
+      </c>
+      <c r="D89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89">
+        <v>2.2530000000000001</v>
+      </c>
+      <c r="F89">
+        <v>7.5494000000000003</v>
+      </c>
+      <c r="G89">
         <f>F89-E89</f>
-        <v>18.279399999999999</v>
-      </c>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
-      <c r="L89" s="8"/>
-      <c r="M89" s="8"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="9"/>
-      <c r="P89" s="9"/>
-      <c r="Q89" s="10"/>
-      <c r="R89" s="8"/>
-      <c r="W89" s="8"/>
+        <v>5.2964000000000002</v>
+      </c>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="W89" s="7"/>
     </row>
     <row r="90" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A90" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B90" s="8">
-        <v>1</v>
-      </c>
-      <c r="C90" s="8">
-        <v>99.78</v>
-      </c>
-      <c r="D90" s="8" t="s">
+      <c r="A90" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>50.08</v>
+      </c>
+      <c r="D90" t="s">
+        <v>41</v>
+      </c>
+      <c r="E90">
+        <v>2.1907000000000001</v>
+      </c>
+      <c r="F90">
+        <v>3.2311000000000001</v>
+      </c>
+      <c r="G90">
+        <f>F90-E90</f>
+        <v>1.0404</v>
+      </c>
+      <c r="P90" s="13"/>
+      <c r="Q90" s="13"/>
+      <c r="R90" s="7"/>
+      <c r="W90" s="7"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>50.08</v>
+      </c>
+      <c r="D91" t="s">
+        <v>42</v>
+      </c>
+      <c r="E91">
+        <v>2.3243999999999998</v>
+      </c>
+      <c r="F91">
+        <v>2.5724</v>
+      </c>
+      <c r="G91">
+        <f>F91-E91</f>
+        <v>0.24800000000000022</v>
+      </c>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="W91" s="7"/>
+    </row>
+    <row r="92" spans="1:23" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>30</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>50.08</v>
+      </c>
+      <c r="D92" t="s">
+        <v>18</v>
+      </c>
+      <c r="E92">
+        <v>12.06</v>
+      </c>
+      <c r="F92">
+        <v>14.4</v>
+      </c>
+      <c r="G92">
+        <f>F92-E92</f>
+        <v>2.34</v>
+      </c>
+      <c r="H92"/>
+      <c r="P92" s="13"/>
+      <c r="Q92" s="13"/>
+      <c r="R92" s="8"/>
+      <c r="W92" s="8"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>31</v>
       </c>
-      <c r="E90" s="8">
-        <v>2.2422</v>
-      </c>
-      <c r="F90" s="8">
-        <v>21.527200000000001</v>
-      </c>
-      <c r="G90" s="8">
-        <f>F90-E90</f>
-        <v>19.285</v>
-      </c>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
-      <c r="L90" s="8"/>
-      <c r="M90" s="8"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="8"/>
-      <c r="P90" s="8"/>
-      <c r="Q90" s="8"/>
-      <c r="R90" s="8"/>
-      <c r="W90" s="8"/>
-    </row>
-    <row r="91" spans="1:23" s="2" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B91" s="8">
-        <v>1</v>
-      </c>
-      <c r="C91" s="8">
-        <v>99.78</v>
-      </c>
-      <c r="D91" s="8" t="s">
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>50.03</v>
+      </c>
+      <c r="D93" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93">
+        <v>2.2406999999999999</v>
+      </c>
+      <c r="F93">
+        <v>3.1456</v>
+      </c>
+      <c r="G93">
+        <f>F93-E93</f>
+        <v>0.90490000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>31</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>50.03</v>
+      </c>
+      <c r="D94" t="s">
+        <v>33</v>
+      </c>
+      <c r="E94">
+        <v>2.2349999999999999</v>
+      </c>
+      <c r="F94">
+        <v>11.8307</v>
+      </c>
+      <c r="G94">
+        <f>F94-E94</f>
+        <v>9.5957000000000008</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>31</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>50.03</v>
+      </c>
+      <c r="D95" t="s">
+        <v>39</v>
+      </c>
+      <c r="E95">
+        <v>2.2010000000000001</v>
+      </c>
+      <c r="F95">
+        <v>29.123699999999999</v>
+      </c>
+      <c r="G95">
+        <f>F95-E95</f>
+        <v>26.922699999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>31</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>50.03</v>
+      </c>
+      <c r="D96" t="s">
+        <v>40</v>
+      </c>
+      <c r="E96">
+        <v>2.2557999999999998</v>
+      </c>
+      <c r="F96">
+        <v>7.2332999999999998</v>
+      </c>
+      <c r="G96">
+        <f>F96-E96</f>
+        <v>4.9775</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>50.03</v>
+      </c>
+      <c r="D97" t="s">
+        <v>41</v>
+      </c>
+      <c r="E97">
+        <v>2.2364999999999999</v>
+      </c>
+      <c r="F97">
+        <v>2.8180000000000001</v>
+      </c>
+      <c r="G97">
+        <f>F97-E97</f>
+        <v>0.58150000000000013</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>31</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98">
+        <v>50.03</v>
+      </c>
+      <c r="D98" t="s">
+        <v>42</v>
+      </c>
+      <c r="E98">
+        <v>2.2368000000000001</v>
+      </c>
+      <c r="F98">
+        <v>2.4218000000000002</v>
+      </c>
+      <c r="G98">
+        <f>F98-E98</f>
+        <v>0.18500000000000005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>31</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>50.03</v>
+      </c>
+      <c r="D99" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99">
+        <v>12.05</v>
+      </c>
+      <c r="F99">
+        <v>15.76</v>
+      </c>
+      <c r="G99">
+        <f>F99-E99</f>
+        <v>3.7099999999999991</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
         <v>32</v>
       </c>
-      <c r="E91" s="8">
-        <v>2.2342</v>
-      </c>
-      <c r="F91" s="8">
-        <v>14.512499999999999</v>
-      </c>
-      <c r="G91" s="8">
-        <f>F91-E91</f>
-        <v>12.2783</v>
-      </c>
-      <c r="J91" s="12"/>
-      <c r="K91" s="12"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="12"/>
-      <c r="N91" s="9"/>
-      <c r="O91" s="9"/>
-      <c r="P91" s="9"/>
-      <c r="Q91" s="9"/>
-      <c r="R91" s="12"/>
-      <c r="W91" s="12"/>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A92" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B92" s="8">
-        <v>1</v>
-      </c>
-      <c r="C92" s="8">
-        <v>99.78</v>
-      </c>
-      <c r="D92" s="8" t="s">
+      <c r="B100">
+        <v>3</v>
+      </c>
+      <c r="C100">
+        <v>50.05</v>
+      </c>
+      <c r="D100" t="s">
+        <v>38</v>
+      </c>
+      <c r="E100">
+        <v>1.2595000000000001</v>
+      </c>
+      <c r="F100">
+        <v>1.8945000000000001</v>
+      </c>
+      <c r="G100">
+        <f>F100-E100</f>
+        <v>0.63500000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101">
+        <v>3</v>
+      </c>
+      <c r="C101">
+        <v>50.05</v>
+      </c>
+      <c r="D101" t="s">
         <v>33</v>
       </c>
-      <c r="E92" s="8">
-        <v>441.65</v>
-      </c>
-      <c r="F92" s="8">
-        <v>459.07</v>
-      </c>
-      <c r="G92" s="8">
-        <f>F92-E92</f>
-        <v>17.420000000000016</v>
-      </c>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A93" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="B93" s="8">
-        <v>1</v>
-      </c>
-      <c r="C93" s="8">
-        <v>99.78</v>
-      </c>
-      <c r="D93" s="8" t="s">
+      <c r="E101">
+        <v>1.2636000000000001</v>
+      </c>
+      <c r="F101">
+        <v>10.7417</v>
+      </c>
+      <c r="G101">
+        <f>F101-E101</f>
+        <v>9.4780999999999995</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102">
+        <v>3</v>
+      </c>
+      <c r="C102">
+        <v>50.05</v>
+      </c>
+      <c r="D102" t="s">
+        <v>39</v>
+      </c>
+      <c r="E102">
+        <v>2.1850999999999998</v>
+      </c>
+      <c r="F102">
+        <v>27.6266</v>
+      </c>
+      <c r="G102">
+        <f>F102-E102</f>
+        <v>25.441500000000001</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103">
+        <v>3</v>
+      </c>
+      <c r="C103">
+        <v>50.05</v>
+      </c>
+      <c r="D103" t="s">
+        <v>40</v>
+      </c>
+      <c r="E103">
+        <v>2.1972999999999998</v>
+      </c>
+      <c r="F103">
+        <v>11.6435</v>
+      </c>
+      <c r="G103">
+        <f>F103-E103</f>
+        <v>9.4461999999999993</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104">
+        <v>3</v>
+      </c>
+      <c r="C104">
+        <v>50.05</v>
+      </c>
+      <c r="D104" t="s">
+        <v>41</v>
+      </c>
+      <c r="E104">
+        <v>2.2465999999999999</v>
+      </c>
+      <c r="F104">
+        <v>2.5966999999999998</v>
+      </c>
+      <c r="G104">
+        <f>F104-E104</f>
+        <v>0.35009999999999986</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>32</v>
+      </c>
+      <c r="B105">
+        <v>3</v>
+      </c>
+      <c r="C105">
+        <v>50.05</v>
+      </c>
+      <c r="D105" t="s">
+        <v>42</v>
+      </c>
+      <c r="E105">
+        <v>1.2765</v>
+      </c>
+      <c r="F105">
+        <v>1.6495</v>
+      </c>
+      <c r="G105">
+        <f>F105-E105</f>
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>32</v>
+      </c>
+      <c r="B106">
+        <v>3</v>
+      </c>
+      <c r="C106">
+        <v>50.05</v>
+      </c>
+      <c r="D106" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106">
+        <v>12.13</v>
+      </c>
+      <c r="F106">
+        <v>15.92</v>
+      </c>
+      <c r="G106">
+        <f>F106-E106</f>
+        <v>3.7899999999999991</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
+        <v>50</v>
+      </c>
+      <c r="D107" t="s">
+        <v>38</v>
+      </c>
+      <c r="E107">
+        <v>2.2492000000000001</v>
+      </c>
+      <c r="F107">
+        <v>2.5367999999999999</v>
+      </c>
+      <c r="G107">
+        <f>F107-E107</f>
+        <v>0.28759999999999986</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>1</v>
+      </c>
+      <c r="C108">
+        <v>50</v>
+      </c>
+      <c r="D108" t="s">
         <v>33</v>
       </c>
-      <c r="E93" s="8">
-        <v>342.15</v>
-      </c>
-      <c r="F93" s="8">
-        <v>372.55</v>
-      </c>
-      <c r="G93" s="8">
-        <f>F93-E93</f>
-        <v>30.400000000000034</v>
-      </c>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A94" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B94" s="8">
-        <v>2</v>
-      </c>
-      <c r="C94" s="8">
-        <v>100.08</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E94" s="8">
-        <v>2.1741000000000001</v>
-      </c>
-      <c r="F94" s="8">
-        <v>2.411</v>
-      </c>
-      <c r="G94" s="8">
-        <f>F94-E94</f>
-        <v>0.23689999999999989</v>
-      </c>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A95" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B95" s="8">
-        <v>2</v>
-      </c>
-      <c r="C95" s="8">
-        <v>100.08</v>
-      </c>
-      <c r="D95" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E95" s="8">
-        <v>2.2351999999999999</v>
-      </c>
-      <c r="F95" s="8">
-        <v>2.8071999999999999</v>
-      </c>
-      <c r="G95" s="8">
-        <f>F95-E95</f>
-        <v>0.57200000000000006</v>
-      </c>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A96" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B96" s="8">
-        <v>2</v>
-      </c>
-      <c r="C96" s="8">
-        <v>100.08</v>
-      </c>
-      <c r="D96" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E96" s="8">
-        <v>2.2244000000000002</v>
-      </c>
-      <c r="F96" s="8">
-        <v>6.4318999999999997</v>
-      </c>
-      <c r="G96" s="8">
-        <f>F96-E96</f>
-        <v>4.2074999999999996</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B97" s="8">
-        <v>2</v>
-      </c>
-      <c r="C97" s="8">
-        <v>100.08</v>
-      </c>
-      <c r="D97" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E97" s="8">
-        <v>2.1871999999999998</v>
-      </c>
-      <c r="F97" s="8">
-        <v>15.2235</v>
-      </c>
-      <c r="G97" s="8">
-        <f>F97-E97</f>
-        <v>13.036300000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B98" s="8">
-        <v>2</v>
-      </c>
-      <c r="C98" s="8">
-        <v>100.08</v>
-      </c>
-      <c r="D98" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E98" s="8">
-        <v>2.1884000000000001</v>
-      </c>
-      <c r="F98" s="8">
-        <v>20.299700000000001</v>
-      </c>
-      <c r="G98" s="8">
-        <f>F98-E98</f>
-        <v>18.1113</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B99" s="8">
-        <v>2</v>
-      </c>
-      <c r="C99" s="8">
-        <v>100.08</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E99" s="8">
-        <v>2.2044999999999999</v>
-      </c>
-      <c r="F99" s="8">
-        <v>15.321199999999999</v>
-      </c>
-      <c r="G99" s="8">
-        <f>F99-E99</f>
-        <v>13.1167</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B100" s="8">
-        <v>2</v>
-      </c>
-      <c r="C100" s="8">
-        <v>100.08</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E100" s="8">
-        <v>15.37</v>
-      </c>
-      <c r="F100" s="8">
-        <v>16.84</v>
-      </c>
-      <c r="G100" s="8">
-        <f>F100-E100</f>
-        <v>1.4700000000000006</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B101" s="8">
-        <v>2</v>
-      </c>
-      <c r="C101" s="8">
-        <v>100.08</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E101" s="8">
-        <v>15.31</v>
-      </c>
-      <c r="F101" s="8">
-        <v>27.68</v>
-      </c>
-      <c r="G101" s="8">
-        <f>F101-E101</f>
-        <v>12.37</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B102" s="8">
-        <v>2</v>
-      </c>
-      <c r="C102" s="8">
-        <v>100.08</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E102" s="8">
-        <v>12.11</v>
-      </c>
-      <c r="F102" s="8">
-        <v>20.93</v>
-      </c>
-      <c r="G102" s="8">
-        <f>F102-E102</f>
-        <v>8.82</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B103" s="8">
-        <v>2</v>
-      </c>
-      <c r="C103" s="8">
-        <v>100.08</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E103" s="8">
-        <v>12.19</v>
-      </c>
-      <c r="F103" s="8">
-        <v>20.62</v>
-      </c>
-      <c r="G103" s="8">
-        <f>F103-E103</f>
-        <v>8.4300000000000015</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B104" s="8">
-        <v>2</v>
-      </c>
-      <c r="C104" s="8">
-        <v>100.08</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E104" s="8">
-        <v>12</v>
-      </c>
-      <c r="F104" s="8">
-        <v>21.42</v>
-      </c>
-      <c r="G104" s="8">
-        <f>F104-E104</f>
-        <v>9.4200000000000017</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B105" s="8">
-        <v>2</v>
-      </c>
-      <c r="C105" s="8">
-        <v>100.08</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E105" s="12">
-        <v>12.14</v>
-      </c>
-      <c r="F105" s="12">
-        <v>22.25</v>
-      </c>
-      <c r="G105" s="12">
-        <f>F105-E105</f>
-        <v>10.11</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B106" s="8">
-        <v>3</v>
-      </c>
-      <c r="C106" s="8">
-        <v>100.51</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E106" s="8">
-        <v>2.1897000000000002</v>
-      </c>
-      <c r="F106" s="8">
-        <v>2.3050999999999999</v>
-      </c>
-      <c r="G106" s="8">
-        <f>F106-E106</f>
-        <v>0.11539999999999973</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B107" s="8">
-        <v>3</v>
-      </c>
-      <c r="C107" s="8">
-        <v>100.51</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="8">
-        <v>2.2568000000000001</v>
-      </c>
-      <c r="F107" s="8">
-        <v>2.7118000000000002</v>
-      </c>
-      <c r="G107" s="8">
-        <f>F107-E107</f>
-        <v>0.45500000000000007</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B108" s="8">
-        <v>3</v>
-      </c>
-      <c r="C108" s="8">
-        <v>100.51</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E108" s="8">
-        <v>2.2395999999999998</v>
-      </c>
-      <c r="F108" s="8">
-        <v>6.1726999999999999</v>
-      </c>
-      <c r="G108" s="8">
+      <c r="E108">
+        <v>2.1772</v>
+      </c>
+      <c r="F108">
+        <v>2.5648</v>
+      </c>
+      <c r="G108">
         <f>F108-E108</f>
-        <v>3.9331</v>
+        <v>0.38759999999999994</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B109" s="8">
-        <v>3</v>
-      </c>
-      <c r="C109" s="8">
-        <v>100.51</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E109" s="8">
-        <v>2.1764999999999999</v>
-      </c>
-      <c r="F109" s="8">
-        <v>15.0303</v>
-      </c>
-      <c r="G109" s="8">
+      <c r="A109" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109">
+        <v>50</v>
+      </c>
+      <c r="D109" t="s">
+        <v>39</v>
+      </c>
+      <c r="E109">
+        <v>2.1713</v>
+      </c>
+      <c r="F109">
+        <v>5.0747</v>
+      </c>
+      <c r="G109">
         <f>F109-E109</f>
-        <v>12.8538</v>
+        <v>2.9034</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B110" s="8">
-        <v>3</v>
-      </c>
-      <c r="C110" s="8">
-        <v>100.51</v>
-      </c>
-      <c r="D110" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E110" s="8">
-        <v>2.1949999999999998</v>
-      </c>
-      <c r="F110" s="8">
-        <v>20.090599999999998</v>
-      </c>
-      <c r="G110" s="8">
-        <f>F110-E110</f>
-        <v>17.895599999999998</v>
+      <c r="A110" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>50</v>
+      </c>
+      <c r="D110" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110">
+        <v>2.1688000000000001</v>
+      </c>
+      <c r="F110">
+        <v>11.0769</v>
+      </c>
+      <c r="G110">
+        <f t="shared" ref="G110:G141" si="5">F110-E110</f>
+        <v>8.908100000000001</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B111" s="8">
-        <v>3</v>
-      </c>
-      <c r="C111" s="8">
-        <v>100.51</v>
-      </c>
-      <c r="D111" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E111" s="8">
-        <v>2.1865000000000001</v>
-      </c>
-      <c r="F111" s="8">
-        <v>15.238799999999999</v>
-      </c>
-      <c r="G111" s="8">
-        <f>F111-E111</f>
-        <v>13.052299999999999</v>
+      <c r="A111" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111">
+        <v>50</v>
+      </c>
+      <c r="D111" t="s">
+        <v>41</v>
+      </c>
+      <c r="E111">
+        <v>2.1758000000000002</v>
+      </c>
+      <c r="F111">
+        <v>14.8833</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="5"/>
+        <v>12.7075</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B112" s="8">
-        <v>3</v>
-      </c>
-      <c r="C112" s="8">
-        <v>100.51</v>
-      </c>
-      <c r="D112" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E112" s="8">
-        <v>12.01</v>
-      </c>
-      <c r="F112" s="8">
-        <v>17.739999999999998</v>
-      </c>
-      <c r="G112" s="8">
-        <f>F112-E112</f>
-        <v>5.7299999999999986</v>
+      <c r="A112" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>50</v>
+      </c>
+      <c r="D112" t="s">
+        <v>42</v>
+      </c>
+      <c r="E112">
+        <v>2.1663000000000001</v>
+      </c>
+      <c r="F112">
+        <v>4.9546999999999999</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="5"/>
+        <v>2.7883999999999998</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B113" s="8">
-        <v>3</v>
-      </c>
-      <c r="C113" s="8">
-        <v>100.51</v>
-      </c>
-      <c r="D113" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E113" s="8">
-        <v>12.11</v>
-      </c>
-      <c r="F113" s="8">
-        <v>24.53</v>
-      </c>
-      <c r="G113" s="8">
-        <f>F113-E113</f>
-        <v>12.420000000000002</v>
+      <c r="A113" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113">
+        <v>50</v>
+      </c>
+      <c r="D113" t="s">
+        <v>18</v>
+      </c>
+      <c r="E113">
+        <v>15.98</v>
+      </c>
+      <c r="F113">
+        <v>17.45</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="5"/>
+        <v>1.4699999999999989</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B114" s="8">
-        <v>3</v>
-      </c>
-      <c r="C114" s="8">
-        <v>100.51</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E114" s="8">
-        <v>12.08</v>
-      </c>
-      <c r="F114" s="8">
-        <v>22.95</v>
-      </c>
-      <c r="G114" s="8">
-        <f>F114-E114</f>
-        <v>10.87</v>
+      <c r="A114" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
+        <v>50</v>
+      </c>
+      <c r="D114" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E114">
+        <v>15.8</v>
+      </c>
+      <c r="F114">
+        <v>20.84</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="5"/>
+        <v>5.0399999999999991</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B115" s="8">
-        <v>3</v>
-      </c>
-      <c r="C115" s="8">
-        <v>100.51</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E115" s="8">
-        <v>12.11</v>
-      </c>
-      <c r="F115" s="8">
-        <v>20.75</v>
-      </c>
-      <c r="G115" s="8">
-        <f>F115-E115</f>
-        <v>8.64</v>
+      <c r="A115" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115">
+        <v>50</v>
+      </c>
+      <c r="D115" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E115">
+        <v>15.81</v>
+      </c>
+      <c r="F115">
+        <v>17.48</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="5"/>
+        <v>1.67</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B116" s="8">
-        <v>3</v>
-      </c>
-      <c r="C116" s="8">
-        <v>100.51</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E116" s="8">
-        <v>12.22</v>
-      </c>
-      <c r="F116" s="8">
-        <v>21.2</v>
-      </c>
-      <c r="G116" s="8">
-        <f>F116-E116</f>
-        <v>8.9799999999999986</v>
+      <c r="A116" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>50</v>
+      </c>
+      <c r="D116" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E116">
+        <v>16.79</v>
+      </c>
+      <c r="F116">
+        <v>29.3</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="5"/>
+        <v>12.510000000000002</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B117" s="8">
-        <v>3</v>
-      </c>
-      <c r="C117" s="8">
-        <v>100.51</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E117" s="12">
-        <v>12.26</v>
-      </c>
-      <c r="F117" s="12">
-        <v>19.72</v>
-      </c>
-      <c r="G117" s="12">
-        <f>F117-E117</f>
-        <v>7.4599999999999991</v>
+      <c r="A117" t="s">
+        <v>6</v>
+      </c>
+      <c r="B117">
+        <v>2</v>
+      </c>
+      <c r="C117">
+        <v>50.15</v>
+      </c>
+      <c r="D117" t="s">
+        <v>38</v>
+      </c>
+      <c r="E117">
+        <v>2.1052</v>
+      </c>
+      <c r="F117">
+        <v>2.5142000000000002</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="5"/>
+        <v>0.40900000000000025</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C118">
-        <v>50</v>
+        <v>50.15</v>
       </c>
       <c r="D118" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E118">
-        <v>2.2492000000000001</v>
+        <v>2.1292</v>
       </c>
       <c r="F118">
-        <v>2.5367999999999999</v>
+        <v>2.6718000000000002</v>
       </c>
       <c r="G118">
-        <f>F118-E118</f>
-        <v>0.28759999999999986</v>
+        <f t="shared" si="5"/>
+        <v>0.54260000000000019</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C119">
-        <v>50</v>
+        <v>50.15</v>
       </c>
       <c r="D119" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E119">
-        <v>2.1772</v>
+        <v>2.0525000000000002</v>
       </c>
       <c r="F119">
-        <v>2.5648</v>
+        <v>5.5564999999999998</v>
       </c>
       <c r="G119">
-        <f>F119-E119</f>
-        <v>0.38759999999999994</v>
+        <f t="shared" si="5"/>
+        <v>3.5039999999999996</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C120">
-        <v>50</v>
+        <v>50.15</v>
       </c>
       <c r="D120" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E120">
-        <v>2.1713</v>
+        <v>2.1781000000000001</v>
       </c>
       <c r="F120">
-        <v>5.0747</v>
+        <v>11.896699999999999</v>
       </c>
       <c r="G120">
-        <f>F120-E120</f>
-        <v>2.9034</v>
+        <f t="shared" si="5"/>
+        <v>9.7185999999999986</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C121">
-        <v>50</v>
+        <v>50.15</v>
       </c>
       <c r="D121" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E121">
-        <v>2.1688000000000001</v>
+        <v>2.1987999999999999</v>
       </c>
       <c r="F121">
-        <v>11.0769</v>
+        <v>14.0618</v>
       </c>
       <c r="G121">
-        <f>F121-E121</f>
-        <v>8.908100000000001</v>
+        <f t="shared" si="5"/>
+        <v>11.863</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C122">
-        <v>50</v>
+        <v>50.15</v>
       </c>
       <c r="D122" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E122">
-        <v>2.1758000000000002</v>
+        <v>2.1379999999999999</v>
       </c>
       <c r="F122">
-        <v>14.8833</v>
+        <v>4.7112999999999996</v>
       </c>
       <c r="G122">
-        <f>F122-E122</f>
-        <v>12.7075</v>
+        <f t="shared" si="5"/>
+        <v>2.5732999999999997</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C123">
-        <v>50</v>
+        <v>50.15</v>
       </c>
       <c r="D123" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E123">
-        <v>2.1663000000000001</v>
+        <v>16.09</v>
       </c>
       <c r="F123">
-        <v>4.9546999999999999</v>
+        <v>20.2</v>
       </c>
       <c r="G123">
-        <f>F123-E123</f>
-        <v>2.7883999999999998</v>
+        <f t="shared" si="5"/>
+        <v>4.1099999999999994</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C124">
-        <v>50</v>
+        <v>50.15</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E124">
-        <v>15.98</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F124">
-        <v>17.45</v>
+        <v>26.87</v>
       </c>
       <c r="G124">
-        <f>F124-E124</f>
-        <v>1.4699999999999989</v>
+        <f t="shared" si="5"/>
+        <v>10.77</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C125">
-        <v>50</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>33</v>
+        <v>50.15</v>
+      </c>
+      <c r="D125" t="s">
+        <v>18</v>
       </c>
       <c r="E125">
-        <v>15.8</v>
+        <v>15.35</v>
       </c>
       <c r="F125">
-        <v>20.84</v>
+        <v>21.92</v>
       </c>
       <c r="G125">
-        <f>F125-E125</f>
-        <v>5.0399999999999991</v>
+        <f t="shared" si="5"/>
+        <v>6.5700000000000021</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.2">
@@ -3621,23 +3614,23 @@
         <v>7</v>
       </c>
       <c r="B126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C126">
-        <v>50</v>
-      </c>
-      <c r="D126" s="8" t="s">
-        <v>33</v>
+        <v>50.01</v>
+      </c>
+      <c r="D126" t="s">
+        <v>38</v>
       </c>
       <c r="E126">
-        <v>15.81</v>
+        <v>2.0438000000000001</v>
       </c>
       <c r="F126">
-        <v>17.48</v>
+        <v>2.3174000000000001</v>
       </c>
       <c r="G126">
-        <f>F126-E126</f>
-        <v>1.67</v>
+        <f t="shared" si="5"/>
+        <v>0.27360000000000007</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
@@ -3645,223 +3638,223 @@
         <v>7</v>
       </c>
       <c r="B127">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C127">
-        <v>50</v>
-      </c>
-      <c r="D127" s="8" t="s">
+        <v>50.01</v>
+      </c>
+      <c r="D127" t="s">
         <v>33</v>
       </c>
       <c r="E127">
-        <v>16.79</v>
+        <v>2.0728</v>
       </c>
       <c r="F127">
-        <v>29.3</v>
+        <v>2.3675999999999999</v>
       </c>
       <c r="G127">
-        <f>F127-E127</f>
-        <v>12.510000000000002</v>
+        <f t="shared" si="5"/>
+        <v>0.29479999999999995</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C128">
-        <v>50.15</v>
+        <v>50.01</v>
       </c>
       <c r="D128" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E128">
-        <v>2.1052</v>
+        <v>2.0419999999999998</v>
       </c>
       <c r="F128">
-        <v>2.5142000000000002</v>
+        <v>5.3821000000000003</v>
       </c>
       <c r="G128">
-        <f>F128-E128</f>
-        <v>0.40900000000000025</v>
+        <f t="shared" si="5"/>
+        <v>3.3401000000000005</v>
       </c>
     </row>
     <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C129">
-        <v>50.15</v>
+        <v>50.01</v>
       </c>
       <c r="D129" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E129">
-        <v>2.1292</v>
+        <v>2.1863999999999999</v>
       </c>
       <c r="F129">
-        <v>2.6718000000000002</v>
+        <v>10.737399999999999</v>
       </c>
       <c r="G129">
-        <f>F129-E129</f>
-        <v>0.54260000000000019</v>
+        <f t="shared" si="5"/>
+        <v>8.5509999999999984</v>
       </c>
     </row>
     <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B130">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C130">
-        <v>50.15</v>
+        <v>50.01</v>
       </c>
       <c r="D130" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E130">
-        <v>2.0525000000000002</v>
+        <v>2.1063999999999998</v>
       </c>
       <c r="F130">
-        <v>5.5564999999999998</v>
+        <v>14.6777</v>
       </c>
       <c r="G130">
-        <f>F130-E130</f>
-        <v>3.5039999999999996</v>
+        <f t="shared" si="5"/>
+        <v>12.571300000000001</v>
       </c>
     </row>
     <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C131">
-        <v>50.15</v>
+        <v>50.01</v>
       </c>
       <c r="D131" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E131">
-        <v>2.1781000000000001</v>
+        <v>2.2099000000000002</v>
       </c>
       <c r="F131">
-        <v>11.896699999999999</v>
+        <v>5.0068000000000001</v>
       </c>
       <c r="G131">
-        <f>F131-E131</f>
-        <v>9.7185999999999986</v>
+        <f t="shared" si="5"/>
+        <v>2.7968999999999999</v>
       </c>
     </row>
     <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C132">
-        <v>50.15</v>
+        <v>50.01</v>
       </c>
       <c r="D132" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E132">
-        <v>2.1987999999999999</v>
+        <v>15.96</v>
       </c>
       <c r="F132">
-        <v>14.0618</v>
+        <v>20.07</v>
       </c>
       <c r="G132">
-        <f>F132-E132</f>
-        <v>11.863</v>
-      </c>
-      <c r="T132" s="7"/>
-      <c r="U132" s="7"/>
-      <c r="V132" s="3"/>
+        <f t="shared" si="5"/>
+        <v>4.1099999999999994</v>
+      </c>
     </row>
     <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C133">
-        <v>50.15</v>
+        <v>50.01</v>
       </c>
       <c r="D133" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E133">
-        <v>2.1379999999999999</v>
+        <v>15.82</v>
       </c>
       <c r="F133">
-        <v>4.7112999999999996</v>
+        <v>23.71</v>
       </c>
       <c r="G133">
-        <f>F133-E133</f>
-        <v>2.5732999999999997</v>
-      </c>
-      <c r="O133" s="7"/>
-      <c r="P133" s="7"/>
-      <c r="Q133" s="3"/>
-      <c r="Y133" s="7"/>
-      <c r="Z133" s="7"/>
+        <f t="shared" si="5"/>
+        <v>7.8900000000000006</v>
+      </c>
+      <c r="T133" s="14"/>
+      <c r="U133" s="14"/>
+      <c r="V133" s="3"/>
     </row>
     <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B134">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C134">
-        <v>50.15</v>
+        <v>50.01</v>
       </c>
       <c r="D134" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E134">
-        <v>16.09</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F134">
-        <v>20.2</v>
+        <v>20.75</v>
       </c>
       <c r="G134">
-        <f>F134-E134</f>
-        <v>4.1099999999999994</v>
-      </c>
+        <f t="shared" si="5"/>
+        <v>4.6499999999999986</v>
+      </c>
+      <c r="O134" s="14"/>
+      <c r="P134" s="14"/>
+      <c r="Q134" s="3"/>
+      <c r="Y134" s="14"/>
+      <c r="Z134" s="14"/>
     </row>
     <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C135">
-        <v>50.15</v>
+        <v>50.01</v>
       </c>
       <c r="D135" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E135">
-        <v>16.100000000000001</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="F135">
-        <v>26.87</v>
+        <v>20.65</v>
       </c>
       <c r="G135">
-        <f>F135-E135</f>
-        <v>10.77</v>
+        <f t="shared" si="5"/>
+        <v>4.32</v>
       </c>
     </row>
     <row r="136" spans="1:26" x14ac:dyDescent="0.2">
@@ -3869,239 +3862,239 @@
         <v>8</v>
       </c>
       <c r="B136">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C136">
-        <v>50.15</v>
+        <v>50.08</v>
       </c>
       <c r="D136" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E136">
-        <v>15.35</v>
+        <v>2.1415999999999999</v>
       </c>
       <c r="F136">
-        <v>21.92</v>
+        <v>2.1415999999999999</v>
       </c>
       <c r="G136">
-        <f>F136-E136</f>
-        <v>6.5700000000000021</v>
+        <f t="shared" si="5"/>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B137">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C137">
-        <v>50.01</v>
+        <v>50.08</v>
       </c>
       <c r="D137" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E137">
-        <v>2.0438000000000001</v>
+        <v>2.2048999999999999</v>
       </c>
       <c r="F137">
-        <v>2.3174000000000001</v>
+        <v>2.2313999999999998</v>
       </c>
       <c r="G137">
-        <f>F137-E137</f>
-        <v>0.27360000000000007</v>
+        <f t="shared" si="5"/>
+        <v>2.6499999999999968E-2</v>
       </c>
     </row>
     <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B138">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C138">
-        <v>50.01</v>
+        <v>50.08</v>
       </c>
       <c r="D138" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E138">
-        <v>2.0728</v>
+        <v>2.1153</v>
       </c>
       <c r="F138">
-        <v>2.3675999999999999</v>
+        <v>2.1823000000000001</v>
       </c>
       <c r="G138">
-        <f>F138-E138</f>
-        <v>0.29479999999999995</v>
+        <f t="shared" si="5"/>
+        <v>6.7000000000000171E-2</v>
       </c>
     </row>
     <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B139">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C139">
-        <v>50.01</v>
+        <v>50.08</v>
       </c>
       <c r="D139" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E139">
-        <v>2.0419999999999998</v>
+        <v>2.1602000000000001</v>
       </c>
       <c r="F139">
-        <v>5.3821000000000003</v>
+        <v>2.8380999999999998</v>
       </c>
       <c r="G139">
-        <f>F139-E139</f>
-        <v>3.3401000000000005</v>
+        <f t="shared" si="5"/>
+        <v>0.67789999999999973</v>
       </c>
     </row>
     <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B140">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C140">
-        <v>50.01</v>
+        <v>50.08</v>
       </c>
       <c r="D140" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E140">
-        <v>2.1863999999999999</v>
+        <v>2.0619000000000001</v>
       </c>
       <c r="F140">
-        <v>10.737399999999999</v>
+        <v>6.4965000000000002</v>
       </c>
       <c r="G140">
-        <f>F140-E140</f>
-        <v>8.5509999999999984</v>
+        <f t="shared" si="5"/>
+        <v>4.4345999999999997</v>
       </c>
     </row>
     <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B141">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C141">
-        <v>50.01</v>
+        <v>50.08</v>
       </c>
       <c r="D141" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E141">
-        <v>2.1063999999999998</v>
+        <v>2.1408</v>
       </c>
       <c r="F141">
-        <v>14.6777</v>
+        <v>10.620100000000001</v>
       </c>
       <c r="G141">
-        <f>F141-E141</f>
-        <v>12.571300000000001</v>
+        <f t="shared" si="5"/>
+        <v>8.4793000000000003</v>
       </c>
     </row>
     <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B142">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C142">
-        <v>50.01</v>
+        <v>50.08</v>
       </c>
       <c r="D142" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E142">
-        <v>2.2099000000000002</v>
+        <v>15.74</v>
       </c>
       <c r="F142">
-        <v>5.0068000000000001</v>
+        <v>15.78</v>
       </c>
       <c r="G142">
-        <f>F142-E142</f>
-        <v>2.7968999999999999</v>
+        <f t="shared" ref="G142:G164" si="6">F142-E142</f>
+        <v>3.9999999999999147E-2</v>
       </c>
     </row>
     <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C143">
-        <v>50.01</v>
+        <v>50.08</v>
       </c>
       <c r="D143" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E143">
-        <v>15.96</v>
+        <v>15.93</v>
       </c>
       <c r="F143">
-        <v>20.07</v>
+        <v>18.28</v>
       </c>
       <c r="G143">
-        <f>F143-E143</f>
-        <v>4.1099999999999994</v>
+        <f t="shared" si="6"/>
+        <v>2.3500000000000014</v>
       </c>
     </row>
     <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C144">
-        <v>50.01</v>
+        <v>50.08</v>
       </c>
       <c r="D144" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E144">
-        <v>15.82</v>
+        <v>16.13</v>
       </c>
       <c r="F144">
-        <v>23.71</v>
+        <v>48.56</v>
       </c>
       <c r="G144">
-        <f>F144-E144</f>
-        <v>7.8900000000000006</v>
+        <f t="shared" si="6"/>
+        <v>32.430000000000007</v>
       </c>
     </row>
     <row r="145" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C145">
-        <v>50.01</v>
+        <v>50.08</v>
       </c>
       <c r="D145" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E145">
-        <v>16.100000000000001</v>
+        <v>16.25</v>
       </c>
       <c r="F145">
-        <v>20.75</v>
+        <v>16.3</v>
       </c>
       <c r="G145">
-        <f>F145-E145</f>
-        <v>4.6499999999999986</v>
+        <f t="shared" si="6"/>
+        <v>5.0000000000000711E-2</v>
       </c>
     </row>
     <row r="146" spans="1:25" x14ac:dyDescent="0.2">
@@ -4109,239 +4102,238 @@
         <v>9</v>
       </c>
       <c r="B146">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C146">
-        <v>50.01</v>
+        <v>50.02</v>
       </c>
       <c r="D146" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E146">
-        <v>16.329999999999998</v>
+        <v>2.1642000000000001</v>
       </c>
       <c r="F146">
-        <v>20.65</v>
+        <v>2.1640999999999999</v>
       </c>
       <c r="G146">
-        <f>F146-E146</f>
-        <v>4.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B147">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C147">
-        <v>50.08</v>
+        <v>50.02</v>
       </c>
       <c r="D147" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E147">
-        <v>2.1415999999999999</v>
+        <v>2.0977000000000001</v>
       </c>
       <c r="F147">
-        <v>2.1415999999999999</v>
+        <v>2.1040999999999999</v>
       </c>
       <c r="G147">
-        <f>F147-E147</f>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>6.3999999999997392E-3</v>
       </c>
     </row>
     <row r="148" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B148">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C148">
-        <v>50.08</v>
+        <v>50.02</v>
       </c>
       <c r="D148" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E148">
-        <v>2.2048999999999999</v>
+        <v>2.1762999999999999</v>
       </c>
       <c r="F148">
-        <v>2.2313999999999998</v>
+        <v>2.2688999999999999</v>
       </c>
       <c r="G148">
-        <f>F148-E148</f>
-        <v>2.6499999999999968E-2</v>
+        <f t="shared" si="6"/>
+        <v>9.2600000000000016E-2</v>
       </c>
     </row>
     <row r="149" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C149">
-        <v>50.08</v>
+        <v>50.02</v>
       </c>
       <c r="D149" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E149">
-        <v>2.1153</v>
+        <v>2.1524999999999999</v>
       </c>
       <c r="F149">
-        <v>2.1823000000000001</v>
+        <v>2.8311000000000002</v>
       </c>
       <c r="G149">
-        <f>F149-E149</f>
-        <v>6.7000000000000171E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.67860000000000031</v>
       </c>
     </row>
     <row r="150" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B150">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150">
-        <v>50.08</v>
+        <v>50.02</v>
       </c>
       <c r="D150" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E150">
-        <v>2.1602000000000001</v>
+        <v>2.1797</v>
       </c>
       <c r="F150">
-        <v>2.8380999999999998</v>
+        <v>5.7694999999999999</v>
       </c>
       <c r="G150">
-        <f>F150-E150</f>
-        <v>0.67789999999999973</v>
+        <f t="shared" si="6"/>
+        <v>3.5897999999999999</v>
       </c>
     </row>
     <row r="151" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C151">
-        <v>50.08</v>
+        <v>50.02</v>
       </c>
       <c r="D151" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E151">
-        <v>2.0619000000000001</v>
+        <v>2.1941000000000002</v>
       </c>
       <c r="F151">
-        <v>6.4965000000000002</v>
+        <v>9.2599</v>
       </c>
       <c r="G151">
-        <f>F151-E151</f>
-        <v>4.4345999999999997</v>
+        <f t="shared" si="6"/>
+        <v>7.0657999999999994</v>
       </c>
     </row>
     <row r="152" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C152">
-        <v>50.08</v>
+        <v>50.02</v>
       </c>
       <c r="D152" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E152">
-        <v>2.1408</v>
+        <v>15.78</v>
       </c>
       <c r="F152">
-        <v>10.620100000000001</v>
+        <v>15.81</v>
       </c>
       <c r="G152">
-        <f>F152-E152</f>
-        <v>8.4793000000000003</v>
+        <f t="shared" si="6"/>
+        <v>3.0000000000001137E-2</v>
       </c>
     </row>
     <row r="153" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C153">
-        <v>50.08</v>
+        <v>50.02</v>
       </c>
       <c r="D153" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E153">
-        <v>15.74</v>
+        <v>15.91</v>
       </c>
       <c r="F153">
-        <v>15.78</v>
+        <v>15.95</v>
       </c>
       <c r="G153">
-        <f>F153-E153</f>
+        <f t="shared" si="6"/>
         <v>3.9999999999999147E-2</v>
       </c>
     </row>
     <row r="154" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C154">
-        <v>50.08</v>
+        <v>50.02</v>
       </c>
       <c r="D154" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E154">
-        <v>15.93</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="F154">
-        <v>18.28</v>
+        <v>48.84</v>
       </c>
       <c r="G154">
-        <f>F154-E154</f>
-        <v>2.3500000000000014</v>
+        <f t="shared" si="6"/>
+        <v>32.760000000000005</v>
       </c>
     </row>
     <row r="155" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C155">
-        <v>50.08</v>
+        <v>50.02</v>
       </c>
       <c r="D155" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E155">
-        <v>16.13</v>
+        <v>16.04</v>
       </c>
       <c r="F155">
-        <v>48.56</v>
+        <v>19.690000000000001</v>
       </c>
       <c r="G155">
-        <f>F155-E155</f>
-        <v>32.430000000000007</v>
+        <f t="shared" si="6"/>
+        <v>3.6500000000000021</v>
       </c>
     </row>
     <row r="156" spans="1:25" x14ac:dyDescent="0.2">
@@ -4349,1468 +4341,1451 @@
         <v>10</v>
       </c>
       <c r="B156">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C156">
-        <v>50.08</v>
+        <v>50.01</v>
       </c>
       <c r="D156" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E156">
-        <v>16.25</v>
+        <v>2.2315</v>
       </c>
       <c r="F156">
-        <v>16.3</v>
+        <v>2.3748999999999998</v>
       </c>
       <c r="G156">
-        <f>F156-E156</f>
-        <v>5.0000000000000711E-2</v>
+        <f t="shared" si="6"/>
+        <v>0.14339999999999975</v>
       </c>
     </row>
     <row r="157" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B157">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C157">
-        <v>50.02</v>
+        <v>50.01</v>
       </c>
       <c r="D157" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E157">
-        <v>2.1642000000000001</v>
+        <v>2.1858</v>
       </c>
       <c r="F157">
-        <v>2.1640999999999999</v>
+        <v>2.2532999999999999</v>
       </c>
       <c r="G157">
-        <f>F157-E157</f>
-        <v>-1.0000000000021103E-4</v>
+        <f t="shared" si="6"/>
+        <v>6.7499999999999893E-2</v>
       </c>
     </row>
     <row r="158" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B158">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C158">
-        <v>50.02</v>
+        <v>50.01</v>
       </c>
       <c r="D158" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="E158">
-        <v>2.0977000000000001</v>
+        <v>2.1413000000000002</v>
       </c>
       <c r="F158">
-        <v>2.1040999999999999</v>
+        <v>2.4247999999999998</v>
       </c>
       <c r="G158">
-        <f>F158-E158</f>
-        <v>6.3999999999997392E-3</v>
+        <f t="shared" si="6"/>
+        <v>0.28349999999999964</v>
       </c>
     </row>
     <row r="159" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B159">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C159">
-        <v>50.02</v>
+        <v>50.01</v>
       </c>
       <c r="D159" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="E159">
-        <v>2.1762999999999999</v>
+        <v>2.2054</v>
       </c>
       <c r="F159">
-        <v>2.2688999999999999</v>
+        <v>3.3437000000000001</v>
       </c>
       <c r="G159">
-        <f>F159-E159</f>
-        <v>9.2600000000000016E-2</v>
-      </c>
-      <c r="X159" s="7"/>
-      <c r="Y159" s="7"/>
+        <f t="shared" si="6"/>
+        <v>1.1383000000000001</v>
+      </c>
     </row>
     <row r="160" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B160">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C160">
-        <v>50.02</v>
+        <v>50.01</v>
       </c>
       <c r="D160" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="E160">
-        <v>2.1524999999999999</v>
+        <v>2.1722000000000001</v>
       </c>
       <c r="F160">
-        <v>2.8311000000000002</v>
+        <v>5.9775999999999998</v>
       </c>
       <c r="G160">
-        <f>F160-E160</f>
-        <v>0.67860000000000031</v>
-      </c>
+        <f t="shared" si="6"/>
+        <v>3.8053999999999997</v>
+      </c>
+      <c r="X160" s="14"/>
+      <c r="Y160" s="14"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B161">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C161">
-        <v>50.02</v>
+        <v>50.01</v>
       </c>
       <c r="D161" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="E161">
-        <v>2.1797</v>
+        <v>2.1059999999999999</v>
       </c>
       <c r="F161">
-        <v>5.7694999999999999</v>
+        <v>9.5892999999999997</v>
       </c>
       <c r="G161">
-        <f>F161-E161</f>
-        <v>3.5897999999999999</v>
+        <f t="shared" si="6"/>
+        <v>7.4832999999999998</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C162">
-        <v>50.02</v>
+        <v>50.01</v>
       </c>
       <c r="D162" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E162">
-        <v>2.1941000000000002</v>
+        <v>15.17</v>
       </c>
       <c r="F162">
-        <v>9.2599</v>
+        <v>15.93</v>
       </c>
       <c r="G162">
-        <f>F162-E162</f>
-        <v>7.0657999999999994</v>
+        <f t="shared" si="6"/>
+        <v>0.75999999999999979</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B163">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C163">
-        <v>50.02</v>
+        <v>50.01</v>
       </c>
       <c r="D163" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E163">
-        <v>15.78</v>
+        <v>15.22</v>
       </c>
       <c r="F163">
-        <v>15.81</v>
+        <v>20.09</v>
       </c>
       <c r="G163">
-        <f>F163-E163</f>
-        <v>3.0000000000001137E-2</v>
+        <f t="shared" si="6"/>
+        <v>4.8699999999999992</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B164">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C164">
-        <v>50.02</v>
+        <v>50.01</v>
       </c>
       <c r="D164" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E164">
-        <v>15.91</v>
+        <v>15.29</v>
       </c>
       <c r="F164">
-        <v>15.95</v>
+        <v>47.02</v>
       </c>
       <c r="G164">
-        <f>F164-E164</f>
-        <v>3.9999999999999147E-2</v>
+        <f t="shared" si="6"/>
+        <v>31.730000000000004</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B165">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C165">
-        <v>50.02</v>
+        <v>100.15</v>
       </c>
       <c r="D165" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E165">
-        <v>16.079999999999998</v>
+        <v>2.1027</v>
       </c>
       <c r="F165">
-        <v>48.84</v>
+        <v>5.1978999999999997</v>
       </c>
       <c r="G165">
-        <f>F165-E165</f>
-        <v>32.760000000000005</v>
+        <f t="shared" ref="G165:G175" si="7">E165</f>
+        <v>2.1027</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B166">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C166">
-        <v>50.02</v>
+        <v>100.15</v>
       </c>
       <c r="D166" t="s">
         <v>33</v>
       </c>
       <c r="E166">
-        <v>16.04</v>
+        <v>2.1065999999999998</v>
       </c>
       <c r="F166">
-        <v>19.690000000000001</v>
+        <v>10.6663</v>
       </c>
       <c r="G166">
-        <f>F166-E166</f>
-        <v>3.6500000000000021</v>
+        <f t="shared" si="7"/>
+        <v>2.1065999999999998</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B167">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C167">
-        <v>50.01</v>
+        <v>100.15</v>
       </c>
       <c r="D167" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E167">
-        <v>2.2315</v>
+        <v>2.1926999999999999</v>
       </c>
       <c r="F167">
-        <v>2.3748999999999998</v>
+        <v>36.496699999999997</v>
       </c>
       <c r="G167">
-        <f>F167-E167</f>
-        <v>0.14339999999999975</v>
+        <f t="shared" si="7"/>
+        <v>2.1926999999999999</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B168">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C168">
-        <v>50.01</v>
+        <v>100.15</v>
       </c>
       <c r="D168" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="E168">
-        <v>2.1858</v>
+        <v>2.1562000000000001</v>
       </c>
       <c r="F168">
-        <v>2.2532999999999999</v>
+        <v>22.6462</v>
       </c>
       <c r="G168">
-        <f>F168-E168</f>
-        <v>6.7499999999999893E-2</v>
+        <f t="shared" si="7"/>
+        <v>2.1562000000000001</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B169">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C169">
-        <v>50.01</v>
+        <v>100.15</v>
       </c>
       <c r="D169" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="E169">
-        <v>2.1413000000000002</v>
+        <v>2.1244999999999998</v>
       </c>
       <c r="F169">
-        <v>2.4247999999999998</v>
+        <v>6.7237999999999998</v>
       </c>
       <c r="G169">
-        <f>F169-E169</f>
-        <v>0.28349999999999964</v>
+        <f t="shared" si="7"/>
+        <v>2.1244999999999998</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B170">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C170">
-        <v>50.01</v>
+        <v>100.15</v>
       </c>
       <c r="D170" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E170">
-        <v>2.2054</v>
+        <v>2.2080000000000002</v>
       </c>
       <c r="F170">
-        <v>3.3437000000000001</v>
+        <v>3.6193</v>
       </c>
       <c r="G170">
-        <f>F170-E170</f>
-        <v>1.1383000000000001</v>
+        <f t="shared" si="7"/>
+        <v>2.2080000000000002</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B171">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C171">
-        <v>50.01</v>
+        <v>100.15</v>
       </c>
       <c r="D171" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E171">
-        <v>2.1722000000000001</v>
+        <v>15.31</v>
       </c>
       <c r="F171">
-        <v>5.9775999999999998</v>
+        <v>16.39</v>
       </c>
       <c r="G171">
-        <f>F171-E171</f>
-        <v>3.8053999999999997</v>
+        <f t="shared" si="7"/>
+        <v>15.31</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B172">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C172">
-        <v>50.01</v>
+        <v>100.15</v>
       </c>
       <c r="D172" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="E172">
-        <v>2.1059999999999999</v>
+        <v>15.33</v>
       </c>
       <c r="F172">
-        <v>9.5892999999999997</v>
+        <v>16.47</v>
       </c>
       <c r="G172">
-        <f>F172-E172</f>
-        <v>7.4832999999999998</v>
+        <f t="shared" si="7"/>
+        <v>15.33</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B173">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C173">
-        <v>50.01</v>
+        <v>100.15</v>
       </c>
       <c r="D173" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E173">
-        <v>15.17</v>
+        <v>15.46</v>
       </c>
       <c r="F173">
-        <v>15.93</v>
+        <v>16.739999999999998</v>
       </c>
       <c r="G173">
-        <f>F173-E173</f>
-        <v>0.75999999999999979</v>
+        <f t="shared" si="7"/>
+        <v>15.46</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B174">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C174">
-        <v>50.01</v>
+        <v>100.15</v>
       </c>
       <c r="D174" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E174">
-        <v>15.22</v>
+        <v>15.23</v>
       </c>
       <c r="F174">
-        <v>20.09</v>
+        <v>17.149999999999999</v>
       </c>
       <c r="G174">
-        <f>F174-E174</f>
-        <v>4.8699999999999992</v>
+        <f t="shared" si="7"/>
+        <v>15.23</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B175">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C175">
-        <v>50.01</v>
+        <v>100.15</v>
       </c>
       <c r="D175" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E175">
-        <v>15.29</v>
+        <v>15.25</v>
       </c>
       <c r="F175">
-        <v>47.02</v>
+        <v>38.69</v>
       </c>
       <c r="G175">
-        <f>F175-E175</f>
-        <v>31.730000000000004</v>
+        <f t="shared" si="7"/>
+        <v>15.25</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C176">
-        <v>100.15</v>
+        <v>100.63</v>
       </c>
       <c r="D176" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E176">
-        <v>2.1027</v>
+        <v>2.0733000000000001</v>
       </c>
       <c r="F176">
-        <v>5.1978999999999997</v>
+        <v>5.2640000000000002</v>
       </c>
       <c r="G176">
-        <f>E176</f>
-        <v>2.1027</v>
+        <f t="shared" ref="G176:G186" si="8">F176-E176</f>
+        <v>3.1907000000000001</v>
       </c>
     </row>
     <row r="177" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B177">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C177">
-        <v>100.15</v>
+        <v>100.63</v>
       </c>
       <c r="D177" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E177">
-        <v>2.1065999999999998</v>
+        <v>2.1025999999999998</v>
       </c>
       <c r="F177">
-        <v>10.6663</v>
+        <v>10.258699999999999</v>
       </c>
       <c r="G177">
-        <f>E177</f>
-        <v>2.1065999999999998</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>8.1560999999999986</v>
+      </c>
+      <c r="H177" s="9"/>
     </row>
     <row r="178" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B178">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C178">
-        <v>100.15</v>
+        <v>100.63</v>
       </c>
       <c r="D178" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E178">
-        <v>2.1926999999999999</v>
+        <v>2.1553</v>
       </c>
       <c r="F178">
-        <v>36.496699999999997</v>
+        <v>35.517800000000001</v>
       </c>
       <c r="G178">
-        <f>E178</f>
-        <v>2.1926999999999999</v>
+        <f t="shared" si="8"/>
+        <v>33.362500000000004</v>
       </c>
     </row>
     <row r="179" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B179">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C179">
-        <v>100.15</v>
+        <v>100.63</v>
       </c>
       <c r="D179" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E179">
-        <v>2.1562000000000001</v>
+        <v>2.1080000000000001</v>
       </c>
       <c r="F179">
-        <v>22.6462</v>
+        <v>24.1814</v>
       </c>
       <c r="G179">
-        <f>E179</f>
-        <v>2.1562000000000001</v>
+        <f t="shared" si="8"/>
+        <v>22.073399999999999</v>
       </c>
     </row>
     <row r="180" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C180">
-        <v>100.15</v>
+        <v>100.63</v>
       </c>
       <c r="D180" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E180">
-        <v>2.1244999999999998</v>
+        <v>2.1515</v>
       </c>
       <c r="F180">
-        <v>6.7237999999999998</v>
+        <v>6.6393000000000004</v>
       </c>
       <c r="G180">
-        <f>E180</f>
-        <v>2.1244999999999998</v>
+        <f t="shared" si="8"/>
+        <v>4.4878</v>
       </c>
     </row>
     <row r="181" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C181">
-        <v>100.15</v>
+        <v>100.63</v>
       </c>
       <c r="D181" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E181">
-        <v>2.2080000000000002</v>
+        <v>2.1297000000000001</v>
       </c>
       <c r="F181">
-        <v>3.6193</v>
+        <v>3.5952999999999999</v>
       </c>
       <c r="G181">
-        <f>E181</f>
-        <v>2.2080000000000002</v>
-      </c>
-      <c r="N181" s="7"/>
-      <c r="O181" s="7"/>
-      <c r="P181" s="7"/>
-      <c r="S181" s="7"/>
-      <c r="T181" s="7"/>
-      <c r="U181" s="6"/>
+        <f t="shared" si="8"/>
+        <v>1.4655999999999998</v>
+      </c>
     </row>
     <row r="182" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C182">
-        <v>100.15</v>
+        <v>100.63</v>
       </c>
       <c r="D182" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E182">
-        <v>15.31</v>
+        <v>15.34</v>
       </c>
       <c r="F182">
-        <v>16.39</v>
+        <v>17.29</v>
       </c>
       <c r="G182">
-        <f>E182</f>
-        <v>15.31</v>
-      </c>
+        <f t="shared" si="8"/>
+        <v>1.9499999999999993</v>
+      </c>
+      <c r="N182" s="14"/>
+      <c r="O182" s="14"/>
+      <c r="P182" s="14"/>
+      <c r="S182" s="14"/>
+      <c r="T182" s="14"/>
+      <c r="U182" s="6"/>
     </row>
     <row r="183" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B183">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C183">
-        <v>100.15</v>
+        <v>100.63</v>
       </c>
       <c r="D183" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E183">
-        <v>15.33</v>
+        <v>15.32</v>
       </c>
       <c r="F183">
-        <v>16.47</v>
+        <v>17.84</v>
       </c>
       <c r="G183">
-        <f>E183</f>
-        <v>15.33</v>
+        <f t="shared" si="8"/>
+        <v>2.5199999999999996</v>
       </c>
     </row>
     <row r="184" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C184">
-        <v>100.15</v>
+        <v>100.63</v>
       </c>
       <c r="D184" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E184">
-        <v>15.46</v>
+        <v>15.32</v>
       </c>
       <c r="F184">
-        <v>16.739999999999998</v>
+        <v>17.43</v>
       </c>
       <c r="G184">
-        <f>E184</f>
-        <v>15.46</v>
+        <f t="shared" si="8"/>
+        <v>2.1099999999999994</v>
       </c>
     </row>
     <row r="185" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C185">
-        <v>100.15</v>
+        <v>100.63</v>
       </c>
       <c r="D185" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E185">
-        <v>15.23</v>
+        <v>15.32</v>
       </c>
       <c r="F185">
-        <v>17.149999999999999</v>
+        <v>17.45</v>
       </c>
       <c r="G185">
-        <f>E185</f>
-        <v>15.23</v>
+        <f t="shared" si="8"/>
+        <v>2.129999999999999</v>
       </c>
     </row>
     <row r="186" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C186">
-        <v>100.15</v>
+        <v>100.63</v>
       </c>
       <c r="D186" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E186">
-        <v>15.25</v>
+        <v>15.34</v>
       </c>
       <c r="F186">
-        <v>38.69</v>
+        <v>37.6</v>
       </c>
       <c r="G186">
-        <f>E186</f>
-        <v>15.25</v>
-      </c>
-      <c r="X186" s="7"/>
-      <c r="Y186" s="7"/>
+        <f t="shared" si="8"/>
+        <v>22.26</v>
+      </c>
     </row>
     <row r="187" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B187">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C187">
-        <v>100.63</v>
+        <v>81.884099999999989</v>
       </c>
       <c r="D187" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E187">
-        <v>2.0733000000000001</v>
+        <v>2.1646999999999998</v>
       </c>
       <c r="F187">
-        <v>5.2640000000000002</v>
+        <v>4.7342000000000004</v>
       </c>
       <c r="G187">
         <f>F187-E187</f>
-        <v>3.1907000000000001</v>
-      </c>
+        <v>2.5695000000000006</v>
+      </c>
+      <c r="X187" s="14"/>
+      <c r="Y187" s="14"/>
     </row>
     <row r="188" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C188">
-        <v>100.63</v>
+        <v>81.884099999999989</v>
       </c>
       <c r="D188" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E188">
-        <v>2.1025999999999998</v>
+        <v>2.1400999999999999</v>
       </c>
       <c r="F188">
-        <v>10.258699999999999</v>
+        <v>11.987500000000001</v>
       </c>
       <c r="G188">
-        <f>F188-E188</f>
-        <v>8.1560999999999986</v>
+        <f t="shared" ref="G188:G202" si="9">F188-E188</f>
+        <v>9.8474000000000004</v>
       </c>
     </row>
     <row r="189" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C189">
-        <v>100.63</v>
+        <v>81.884100000000004</v>
       </c>
       <c r="D189" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="E189">
-        <v>2.1553</v>
+        <v>2.1168</v>
       </c>
       <c r="F189">
-        <v>35.517800000000001</v>
+        <v>37.1128</v>
       </c>
       <c r="G189">
-        <f>F189-E189</f>
-        <v>33.362500000000004</v>
+        <f t="shared" si="9"/>
+        <v>34.996000000000002</v>
       </c>
     </row>
     <row r="190" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B190">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C190">
-        <v>100.63</v>
+        <v>81.884100000000004</v>
       </c>
       <c r="D190" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E190">
-        <v>2.1080000000000001</v>
+        <v>2.1760000000000002</v>
       </c>
       <c r="F190">
-        <v>24.1814</v>
+        <v>21.0595</v>
       </c>
       <c r="G190">
-        <f>F190-E190</f>
-        <v>22.073399999999999</v>
-      </c>
-      <c r="H190" s="6"/>
-      <c r="J190" s="7"/>
-      <c r="K190" s="7"/>
-      <c r="L190" s="7"/>
-      <c r="M190" s="6"/>
-      <c r="O190" s="7"/>
-      <c r="P190" s="7"/>
-      <c r="Q190" s="7"/>
+        <f t="shared" si="9"/>
+        <v>18.883499999999998</v>
+      </c>
     </row>
     <row r="191" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C191">
-        <v>100.63</v>
+        <v>81.884100000000004</v>
       </c>
       <c r="D191" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="E191">
-        <v>2.1515</v>
+        <v>2.1600999999999999</v>
       </c>
       <c r="F191">
-        <v>6.6393000000000004</v>
+        <v>6.0997000000000003</v>
       </c>
       <c r="G191">
-        <f>F191-E191</f>
-        <v>4.4878</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>3.9396000000000004</v>
+      </c>
+      <c r="H191" s="9"/>
+      <c r="J191" s="14"/>
+      <c r="K191" s="14"/>
+      <c r="L191" s="14"/>
+      <c r="M191" s="6"/>
+      <c r="O191" s="14"/>
+      <c r="P191" s="14"/>
+      <c r="Q191" s="14"/>
     </row>
     <row r="192" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C192">
-        <v>100.63</v>
+        <v>81.884100000000004</v>
       </c>
       <c r="D192" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E192">
-        <v>2.1297000000000001</v>
+        <v>2.1196000000000002</v>
       </c>
       <c r="F192">
-        <v>3.5952999999999999</v>
+        <v>3.3976999999999999</v>
       </c>
       <c r="G192">
-        <f>F192-E192</f>
-        <v>1.4655999999999998</v>
+        <f t="shared" si="9"/>
+        <v>1.2780999999999998</v>
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B193">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C193">
-        <v>100.63</v>
+        <v>81.884100000000004</v>
       </c>
       <c r="D193" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E193">
-        <v>15.34</v>
+        <v>17.309999999999999</v>
       </c>
       <c r="F193">
-        <v>17.29</v>
+        <v>16.2</v>
       </c>
       <c r="G193">
         <f>F193-E193</f>
-        <v>1.9499999999999993</v>
+        <v>-1.1099999999999994</v>
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B194">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C194">
-        <v>100.63</v>
+        <v>81.884100000000004</v>
       </c>
       <c r="D194" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E194">
-        <v>15.32</v>
+        <v>17.5</v>
       </c>
       <c r="F194">
-        <v>17.84</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="G194">
-        <f>F194-E194</f>
-        <v>2.5199999999999996</v>
+        <f t="shared" si="9"/>
+        <v>-1.3999999999999986</v>
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B195">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C195">
-        <v>100.63</v>
+        <v>81.884100000000004</v>
       </c>
       <c r="D195" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E195">
-        <v>15.32</v>
+        <v>17.690000000000001</v>
       </c>
       <c r="F195">
-        <v>17.43</v>
+        <v>16.34</v>
       </c>
       <c r="G195">
-        <f>F195-E195</f>
-        <v>2.1099999999999994</v>
+        <f t="shared" si="9"/>
+        <v>-1.3500000000000014</v>
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B196">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C196">
-        <v>100.63</v>
+        <v>81.884100000000004</v>
       </c>
       <c r="D196" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E196">
-        <v>15.32</v>
+        <v>16.760000000000002</v>
       </c>
       <c r="F196">
-        <v>17.45</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="G196">
-        <f>F196-E196</f>
-        <v>2.129999999999999</v>
+        <f t="shared" si="9"/>
+        <v>-0.36000000000000298</v>
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C197">
-        <v>100.63</v>
+        <v>81.884100000000004</v>
       </c>
       <c r="D197" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="E197">
-        <v>15.34</v>
+        <v>18.12</v>
       </c>
       <c r="F197">
-        <v>37.6</v>
+        <v>17.28</v>
       </c>
       <c r="G197">
-        <f>F197-E197</f>
-        <v>22.26</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="F204" s="7"/>
-      <c r="G204" s="7"/>
-      <c r="H204" s="7"/>
-      <c r="K204" s="7"/>
-      <c r="L204" s="7"/>
-      <c r="M204" s="6"/>
-    </row>
-    <row r="209" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P209" s="7"/>
-      <c r="Q209" s="7"/>
-    </row>
-    <row r="211" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A211" s="7"/>
-      <c r="B211" s="7"/>
-      <c r="C211" s="7"/>
-      <c r="E211" s="7"/>
-      <c r="F211" s="7"/>
-      <c r="G211" s="7"/>
-      <c r="H211" s="6"/>
-      <c r="J211" s="7"/>
-      <c r="K211" s="7"/>
-      <c r="L211" s="7"/>
-      <c r="M211" s="6"/>
-      <c r="O211" s="7"/>
-      <c r="P211" s="7"/>
-      <c r="Q211" s="7"/>
-    </row>
-    <row r="212" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A212" s="1"/>
-      <c r="B212" s="1"/>
-      <c r="C212" s="1"/>
-    </row>
-    <row r="223" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K223" s="7"/>
-      <c r="L223" s="7"/>
-      <c r="M223" s="6"/>
-    </row>
-    <row r="224" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F224" s="7"/>
-      <c r="G224" s="7"/>
-      <c r="H224" s="6"/>
-      <c r="P224" s="7"/>
-      <c r="Q224" s="7"/>
-    </row>
-    <row r="226" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A226" s="7"/>
-      <c r="B226" s="7"/>
-      <c r="C226" s="7"/>
-      <c r="E226" s="7"/>
-      <c r="F226" s="7"/>
-      <c r="G226" s="7"/>
-      <c r="H226" s="6"/>
-      <c r="J226" s="7"/>
-      <c r="K226" s="7"/>
-      <c r="L226" s="7"/>
-      <c r="M226" s="6"/>
-      <c r="O226" s="7"/>
-      <c r="P226" s="7"/>
-      <c r="Q226" s="7"/>
-    </row>
-    <row r="227" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A227" s="1"/>
-      <c r="B227" s="1"/>
-      <c r="C227" s="1"/>
-    </row>
-    <row r="238" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P238" s="7"/>
-      <c r="Q238" s="7"/>
-    </row>
-    <row r="239" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F239" s="7"/>
-      <c r="G239" s="7"/>
-      <c r="H239" s="6"/>
-      <c r="K239" s="7"/>
-      <c r="L239" s="7"/>
-      <c r="M239" s="6"/>
-    </row>
-    <row r="241" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A241" s="7"/>
-      <c r="B241" s="7"/>
-      <c r="C241" s="7"/>
-      <c r="D241" s="8"/>
-      <c r="E241" s="9"/>
-      <c r="F241" s="9"/>
-      <c r="G241" s="9"/>
-      <c r="H241" s="10"/>
-      <c r="J241" s="7"/>
-      <c r="K241" s="7"/>
-      <c r="L241" s="7"/>
-      <c r="M241" s="6"/>
-      <c r="O241" s="7"/>
-      <c r="P241" s="7"/>
-      <c r="Q241" s="7"/>
-    </row>
-    <row r="242" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A242" s="1"/>
-      <c r="B242" s="1"/>
-      <c r="C242" s="1"/>
-      <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
-      <c r="F242" s="8"/>
-      <c r="G242" s="8"/>
-      <c r="H242" s="8"/>
-    </row>
-    <row r="243" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
-      <c r="F243" s="8"/>
-      <c r="G243" s="8"/>
-      <c r="H243" s="8"/>
-    </row>
-    <row r="244" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
-      <c r="F244" s="8"/>
-      <c r="G244" s="8"/>
-      <c r="H244" s="8"/>
-    </row>
-    <row r="245" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
-      <c r="F245" s="8"/>
-      <c r="G245" s="8"/>
-      <c r="H245" s="8"/>
-    </row>
-    <row r="246" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
-      <c r="F246" s="8"/>
-      <c r="G246" s="8"/>
-      <c r="H246" s="8"/>
-    </row>
-    <row r="247" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
-      <c r="F247" s="8"/>
-      <c r="G247" s="8"/>
-      <c r="H247" s="8"/>
-    </row>
-    <row r="248" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
-      <c r="F248" s="8"/>
-      <c r="G248" s="8"/>
-      <c r="H248" s="8"/>
-    </row>
-    <row r="249" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
-      <c r="F249" s="8"/>
-      <c r="G249" s="8"/>
-      <c r="H249" s="8"/>
-    </row>
-    <row r="250" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
-      <c r="F250" s="8"/>
-      <c r="G250" s="8"/>
-      <c r="H250" s="8"/>
-    </row>
-    <row r="251" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D251" s="8"/>
-      <c r="E251" s="8"/>
-      <c r="F251" s="8"/>
-      <c r="G251" s="8"/>
-      <c r="H251" s="8"/>
-    </row>
-    <row r="252" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
-      <c r="F252" s="9"/>
-      <c r="G252" s="9"/>
-      <c r="H252" s="10"/>
-    </row>
-    <row r="253" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
-      <c r="F253" s="8"/>
-      <c r="G253" s="8"/>
-      <c r="H253" s="8"/>
-    </row>
-    <row r="254" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="D254" s="8"/>
-      <c r="E254" s="11"/>
-      <c r="F254" s="11"/>
-      <c r="G254" s="11"/>
-      <c r="H254" s="11"/>
-      <c r="I254" s="4"/>
-    </row>
-    <row r="256" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="K256" s="7"/>
-      <c r="L256" s="7"/>
-      <c r="M256" s="6"/>
-      <c r="P256" s="6"/>
-      <c r="Q256" s="6"/>
-    </row>
-    <row r="258" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A258" s="7"/>
-      <c r="B258" s="7"/>
-      <c r="C258" s="7"/>
-      <c r="E258" s="7"/>
-      <c r="F258" s="7"/>
-      <c r="G258" s="7"/>
-      <c r="H258" s="6"/>
-      <c r="J258" s="7"/>
-      <c r="K258" s="7"/>
-      <c r="L258" s="7"/>
-      <c r="M258" s="6"/>
-      <c r="O258" s="7"/>
-      <c r="P258" s="7"/>
-      <c r="Q258" s="7"/>
-    </row>
-    <row r="259" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A259" s="1"/>
-      <c r="B259" s="1"/>
-      <c r="C259" s="1"/>
-    </row>
-    <row r="270" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P270" s="7"/>
-      <c r="Q270" s="7"/>
-    </row>
-    <row r="271" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F271" s="7"/>
-      <c r="G271" s="7"/>
-      <c r="H271" s="6"/>
-      <c r="K271" s="7"/>
-      <c r="L271" s="7"/>
-      <c r="M271" s="6"/>
-    </row>
-    <row r="273" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A273" s="7"/>
-      <c r="B273" s="7"/>
-      <c r="C273" s="7"/>
-      <c r="E273" s="7"/>
-      <c r="F273" s="7"/>
-      <c r="G273" s="7"/>
-      <c r="H273" s="6"/>
-      <c r="J273" s="7"/>
-      <c r="K273" s="7"/>
-      <c r="L273" s="7"/>
-      <c r="M273" s="6"/>
-      <c r="O273" s="7"/>
-      <c r="P273" s="7"/>
-      <c r="Q273" s="7"/>
-    </row>
-    <row r="274" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A274" s="1"/>
-      <c r="B274" s="1"/>
-      <c r="C274" s="1"/>
-    </row>
-    <row r="285" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P285" s="7"/>
-      <c r="Q285" s="7"/>
-    </row>
-    <row r="286" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F286" s="7"/>
-      <c r="G286" s="7"/>
-      <c r="H286" s="6"/>
-      <c r="K286" s="7"/>
-      <c r="L286" s="7"/>
-      <c r="M286" s="6"/>
-    </row>
-    <row r="289" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A289" s="7"/>
-      <c r="B289" s="7"/>
-      <c r="C289" s="7"/>
-      <c r="E289" s="7"/>
-      <c r="F289" s="7"/>
-      <c r="G289" s="7"/>
-      <c r="H289" s="6"/>
-      <c r="J289" s="7"/>
-      <c r="K289" s="7"/>
-      <c r="L289" s="7"/>
-      <c r="M289" s="6"/>
-      <c r="O289" s="7"/>
-      <c r="P289" s="7"/>
-      <c r="Q289" s="7"/>
+        <f t="shared" si="9"/>
+        <v>-0.83999999999999986</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>26</v>
+      </c>
+      <c r="B198">
+        <v>3</v>
+      </c>
+      <c r="C198">
+        <v>81.884100000000004</v>
+      </c>
+      <c r="D198" t="s">
+        <v>18</v>
+      </c>
+      <c r="E198">
+        <v>17.07</v>
+      </c>
+      <c r="F198">
+        <v>15.87</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="9"/>
+        <v>-1.2000000000000011</v>
+      </c>
+      <c r="H198" s="9"/>
+    </row>
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>26</v>
+      </c>
+      <c r="B199">
+        <v>3</v>
+      </c>
+      <c r="C199">
+        <v>81.884100000000004</v>
+      </c>
+      <c r="D199" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F199">
+        <v>16.239999999999998</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="9"/>
+        <v>-0.66000000000000014</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>26</v>
+      </c>
+      <c r="B200">
+        <v>3</v>
+      </c>
+      <c r="C200">
+        <v>81.884100000000004</v>
+      </c>
+      <c r="D200" t="s">
+        <v>18</v>
+      </c>
+      <c r="E200">
+        <v>17.21</v>
+      </c>
+      <c r="F200">
+        <v>20.95</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="9"/>
+        <v>3.7399999999999984</v>
+      </c>
+    </row>
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>26</v>
+      </c>
+      <c r="B201">
+        <v>3</v>
+      </c>
+      <c r="C201">
+        <v>81.884100000000004</v>
+      </c>
+      <c r="D201" t="s">
+        <v>18</v>
+      </c>
+      <c r="E201">
+        <v>17.059999999999999</v>
+      </c>
+      <c r="F201">
+        <v>16.64</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="9"/>
+        <v>-0.41999999999999815</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>26</v>
+      </c>
+      <c r="B202">
+        <v>3</v>
+      </c>
+      <c r="C202">
+        <v>81.884100000000004</v>
+      </c>
+      <c r="D202" t="s">
+        <v>18</v>
+      </c>
+      <c r="E202">
+        <v>17.23</v>
+      </c>
+      <c r="F202">
+        <v>31.2</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="9"/>
+        <v>13.969999999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K205" s="14"/>
+      <c r="L205" s="14"/>
+      <c r="M205" s="6"/>
+    </row>
+    <row r="210" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="P210" s="14"/>
+      <c r="Q210" s="14"/>
+    </row>
+    <row r="212" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="J212" s="14"/>
+      <c r="K212" s="14"/>
+      <c r="L212" s="14"/>
+      <c r="M212" s="6"/>
+      <c r="O212" s="14"/>
+      <c r="P212" s="14"/>
+      <c r="Q212" s="14"/>
+    </row>
+    <row r="224" spans="10:17" x14ac:dyDescent="0.2">
+      <c r="K224" s="14"/>
+      <c r="L224" s="14"/>
+      <c r="M224" s="6"/>
+    </row>
+    <row r="225" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H225" s="9"/>
+      <c r="P225" s="14"/>
+      <c r="Q225" s="14"/>
+    </row>
+    <row r="227" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H227" s="9"/>
+      <c r="J227" s="14"/>
+      <c r="K227" s="14"/>
+      <c r="L227" s="14"/>
+      <c r="M227" s="6"/>
+      <c r="O227" s="14"/>
+      <c r="P227" s="14"/>
+      <c r="Q227" s="14"/>
+    </row>
+    <row r="239" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="P239" s="14"/>
+      <c r="Q239" s="14"/>
+    </row>
+    <row r="240" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H240" s="9"/>
+      <c r="K240" s="14"/>
+      <c r="L240" s="14"/>
+      <c r="M240" s="6"/>
+    </row>
+    <row r="242" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H242" s="10"/>
+      <c r="J242" s="14"/>
+      <c r="K242" s="14"/>
+      <c r="L242" s="14"/>
+      <c r="M242" s="6"/>
+      <c r="O242" s="14"/>
+      <c r="P242" s="14"/>
+      <c r="Q242" s="14"/>
+    </row>
+    <row r="243" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H243" s="7"/>
+    </row>
+    <row r="244" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H244" s="7"/>
+    </row>
+    <row r="245" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H245" s="7"/>
+    </row>
+    <row r="246" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H246" s="7"/>
+    </row>
+    <row r="247" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H247" s="7"/>
+    </row>
+    <row r="248" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H248" s="7"/>
+    </row>
+    <row r="249" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H249" s="7"/>
+    </row>
+    <row r="250" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H250" s="7"/>
+    </row>
+    <row r="251" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H251" s="7"/>
+    </row>
+    <row r="252" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H252" s="7"/>
+    </row>
+    <row r="253" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H253" s="10"/>
+    </row>
+    <row r="254" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H254" s="7"/>
+    </row>
+    <row r="255" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H255" s="11"/>
+      <c r="I255" s="4"/>
+    </row>
+    <row r="257" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="K257" s="14"/>
+      <c r="L257" s="14"/>
+      <c r="M257" s="6"/>
+      <c r="P257" s="6"/>
+      <c r="Q257" s="6"/>
+    </row>
+    <row r="259" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H259" s="9"/>
+      <c r="J259" s="14"/>
+      <c r="K259" s="14"/>
+      <c r="L259" s="14"/>
+      <c r="M259" s="6"/>
+      <c r="O259" s="14"/>
+      <c r="P259" s="14"/>
+      <c r="Q259" s="14"/>
+    </row>
+    <row r="271" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="P271" s="14"/>
+      <c r="Q271" s="14"/>
+    </row>
+    <row r="272" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H272" s="9"/>
+      <c r="K272" s="14"/>
+      <c r="L272" s="14"/>
+      <c r="M272" s="6"/>
+    </row>
+    <row r="274" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H274" s="9"/>
+      <c r="J274" s="14"/>
+      <c r="K274" s="14"/>
+      <c r="L274" s="14"/>
+      <c r="M274" s="6"/>
+      <c r="O274" s="14"/>
+      <c r="P274" s="14"/>
+      <c r="Q274" s="14"/>
+    </row>
+    <row r="286" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="P286" s="14"/>
+      <c r="Q286" s="14"/>
+    </row>
+    <row r="287" spans="8:17" x14ac:dyDescent="0.2">
+      <c r="H287" s="9"/>
+      <c r="K287" s="14"/>
+      <c r="L287" s="14"/>
+      <c r="M287" s="6"/>
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A290" s="1"/>
-      <c r="B290" s="1"/>
-      <c r="C290" s="1"/>
-    </row>
-    <row r="301" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P301" s="7"/>
-      <c r="Q301" s="7"/>
+      <c r="A290" s="14"/>
+      <c r="B290" s="14"/>
+      <c r="C290" s="14"/>
+      <c r="E290" s="14"/>
+      <c r="F290" s="14"/>
+      <c r="G290" s="14"/>
+      <c r="H290" s="6"/>
+      <c r="J290" s="14"/>
+      <c r="K290" s="14"/>
+      <c r="L290" s="14"/>
+      <c r="M290" s="6"/>
+      <c r="O290" s="14"/>
+      <c r="P290" s="14"/>
+      <c r="Q290" s="14"/>
+    </row>
+    <row r="291" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A291" s="1"/>
+      <c r="B291" s="1"/>
+      <c r="C291" s="1"/>
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F302" s="7"/>
-      <c r="G302" s="7"/>
-      <c r="H302" s="6"/>
-      <c r="K302" s="7"/>
-      <c r="L302" s="7"/>
-      <c r="M302" s="6"/>
-    </row>
-    <row r="305" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A305" s="7"/>
-      <c r="B305" s="7"/>
-      <c r="C305" s="7"/>
-      <c r="E305" s="7"/>
-      <c r="F305" s="7"/>
-      <c r="G305" s="7"/>
-      <c r="H305" s="6"/>
-      <c r="J305" s="7"/>
-      <c r="K305" s="7"/>
-      <c r="L305" s="7"/>
-      <c r="M305" s="6"/>
-      <c r="O305" s="7"/>
-      <c r="P305" s="7"/>
-      <c r="Q305" s="7"/>
+      <c r="P302" s="14"/>
+      <c r="Q302" s="14"/>
+    </row>
+    <row r="303" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F303" s="14"/>
+      <c r="G303" s="14"/>
+      <c r="H303" s="6"/>
+      <c r="K303" s="14"/>
+      <c r="L303" s="14"/>
+      <c r="M303" s="6"/>
     </row>
     <row r="306" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A306" s="1"/>
-      <c r="B306" s="1"/>
-      <c r="C306" s="1"/>
-    </row>
-    <row r="317" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P317" s="7"/>
-      <c r="Q317" s="7"/>
+      <c r="A306" s="14"/>
+      <c r="B306" s="14"/>
+      <c r="C306" s="14"/>
+      <c r="E306" s="14"/>
+      <c r="F306" s="14"/>
+      <c r="G306" s="14"/>
+      <c r="H306" s="6"/>
+      <c r="J306" s="14"/>
+      <c r="K306" s="14"/>
+      <c r="L306" s="14"/>
+      <c r="M306" s="6"/>
+      <c r="O306" s="14"/>
+      <c r="P306" s="14"/>
+      <c r="Q306" s="14"/>
+    </row>
+    <row r="307" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A307" s="1"/>
+      <c r="B307" s="1"/>
+      <c r="C307" s="1"/>
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F318" s="7"/>
-      <c r="G318" s="7"/>
-      <c r="H318" s="6"/>
-      <c r="K318" s="7"/>
-      <c r="L318" s="7"/>
-      <c r="M318" s="6"/>
-    </row>
-    <row r="321" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A321" s="7"/>
-      <c r="B321" s="7"/>
-      <c r="C321" s="7"/>
-      <c r="E321" s="7"/>
-      <c r="F321" s="7"/>
-      <c r="G321" s="7"/>
-      <c r="H321" s="6"/>
-      <c r="J321" s="7"/>
-      <c r="K321" s="7"/>
-      <c r="L321" s="7"/>
-      <c r="M321" s="6"/>
-      <c r="O321" s="7"/>
-      <c r="P321" s="7"/>
-      <c r="Q321" s="7"/>
+      <c r="P318" s="14"/>
+      <c r="Q318" s="14"/>
+    </row>
+    <row r="319" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="F319" s="14"/>
+      <c r="G319" s="14"/>
+      <c r="H319" s="6"/>
+      <c r="K319" s="14"/>
+      <c r="L319" s="14"/>
+      <c r="M319" s="6"/>
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A322" s="1"/>
-      <c r="B322" s="1"/>
-      <c r="C322" s="1"/>
-    </row>
-    <row r="334" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="F334" s="7"/>
-      <c r="G334" s="7"/>
-      <c r="H334" s="6"/>
-      <c r="K334" s="7"/>
-      <c r="L334" s="7"/>
-      <c r="M334" s="6"/>
+      <c r="A322" s="14"/>
+      <c r="B322" s="14"/>
+      <c r="C322" s="14"/>
+      <c r="E322" s="14"/>
+      <c r="F322" s="14"/>
+      <c r="G322" s="14"/>
+      <c r="H322" s="6"/>
+      <c r="J322" s="14"/>
+      <c r="K322" s="14"/>
+      <c r="L322" s="14"/>
+      <c r="M322" s="6"/>
+      <c r="O322" s="14"/>
+      <c r="P322" s="14"/>
+      <c r="Q322" s="14"/>
+    </row>
+    <row r="323" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A323" s="1"/>
+      <c r="B323" s="1"/>
+      <c r="C323" s="1"/>
     </row>
     <row r="335" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="P335" s="6"/>
-      <c r="Q335" s="6"/>
+      <c r="F335" s="14"/>
+      <c r="G335" s="14"/>
+      <c r="H335" s="6"/>
+      <c r="K335" s="14"/>
+      <c r="L335" s="14"/>
+      <c r="M335" s="6"/>
+    </row>
+    <row r="336" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="P336" s="6"/>
+      <c r="Q336" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="77">
-    <mergeCell ref="X186:Y186"/>
-    <mergeCell ref="T132:U132"/>
-    <mergeCell ref="O133:P133"/>
-    <mergeCell ref="Y133:Z133"/>
-    <mergeCell ref="N181:P181"/>
-    <mergeCell ref="S181:T181"/>
-    <mergeCell ref="F334:G334"/>
-    <mergeCell ref="K334:L334"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="N91:Q91"/>
-    <mergeCell ref="O89:P89"/>
-    <mergeCell ref="X159:Y159"/>
-    <mergeCell ref="P317:Q317"/>
-    <mergeCell ref="F318:G318"/>
-    <mergeCell ref="K318:L318"/>
-    <mergeCell ref="A321:C321"/>
-    <mergeCell ref="E321:G321"/>
-    <mergeCell ref="J321:L321"/>
-    <mergeCell ref="O321:Q321"/>
-    <mergeCell ref="P301:Q301"/>
-    <mergeCell ref="F302:G302"/>
-    <mergeCell ref="K302:L302"/>
-    <mergeCell ref="A305:C305"/>
-    <mergeCell ref="E305:G305"/>
-    <mergeCell ref="J305:L305"/>
-    <mergeCell ref="O305:Q305"/>
-    <mergeCell ref="P285:Q285"/>
-    <mergeCell ref="F286:G286"/>
-    <mergeCell ref="K286:L286"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="E289:G289"/>
-    <mergeCell ref="J289:L289"/>
-    <mergeCell ref="O289:Q289"/>
-    <mergeCell ref="O258:Q258"/>
-    <mergeCell ref="P270:Q270"/>
-    <mergeCell ref="F271:G271"/>
-    <mergeCell ref="K271:L271"/>
-    <mergeCell ref="A273:C273"/>
-    <mergeCell ref="E273:G273"/>
-    <mergeCell ref="J273:L273"/>
-    <mergeCell ref="O273:Q273"/>
-    <mergeCell ref="F252:G252"/>
-    <mergeCell ref="E254:H254"/>
-    <mergeCell ref="K256:L256"/>
-    <mergeCell ref="A258:C258"/>
-    <mergeCell ref="E258:G258"/>
-    <mergeCell ref="J258:L258"/>
-    <mergeCell ref="P238:Q238"/>
-    <mergeCell ref="F239:G239"/>
-    <mergeCell ref="K239:L239"/>
-    <mergeCell ref="A241:C241"/>
-    <mergeCell ref="E241:G241"/>
-    <mergeCell ref="J241:L241"/>
-    <mergeCell ref="O241:Q241"/>
-    <mergeCell ref="F224:G224"/>
-    <mergeCell ref="P224:Q224"/>
-    <mergeCell ref="A226:C226"/>
-    <mergeCell ref="E226:G226"/>
-    <mergeCell ref="J226:L226"/>
-    <mergeCell ref="O226:Q226"/>
-    <mergeCell ref="P209:Q209"/>
-    <mergeCell ref="A211:C211"/>
-    <mergeCell ref="E211:G211"/>
-    <mergeCell ref="J211:L211"/>
-    <mergeCell ref="O211:Q211"/>
-    <mergeCell ref="K223:L223"/>
-    <mergeCell ref="J190:L190"/>
-    <mergeCell ref="O190:Q190"/>
-    <mergeCell ref="F204:H204"/>
-    <mergeCell ref="K204:L204"/>
+  <mergeCells count="56">
+    <mergeCell ref="K205:L205"/>
     <mergeCell ref="J2:L2"/>
     <mergeCell ref="N2:Q2"/>
     <mergeCell ref="S2:V2"/>
     <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="X160:Y160"/>
+    <mergeCell ref="S34:U34"/>
+    <mergeCell ref="O227:Q227"/>
+    <mergeCell ref="P239:Q239"/>
+    <mergeCell ref="J212:L212"/>
+    <mergeCell ref="O212:Q212"/>
+    <mergeCell ref="K224:L224"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="E290:G290"/>
+    <mergeCell ref="J290:L290"/>
+    <mergeCell ref="O290:Q290"/>
+    <mergeCell ref="O259:Q259"/>
+    <mergeCell ref="P271:Q271"/>
+    <mergeCell ref="K272:L272"/>
+    <mergeCell ref="J274:L274"/>
+    <mergeCell ref="O274:Q274"/>
+    <mergeCell ref="J259:L259"/>
+    <mergeCell ref="P286:Q286"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="E322:G322"/>
+    <mergeCell ref="J322:L322"/>
+    <mergeCell ref="O322:Q322"/>
+    <mergeCell ref="P302:Q302"/>
+    <mergeCell ref="F303:G303"/>
+    <mergeCell ref="K303:L303"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="E306:G306"/>
+    <mergeCell ref="J306:L306"/>
+    <mergeCell ref="O306:Q306"/>
+    <mergeCell ref="P318:Q318"/>
+    <mergeCell ref="P210:Q210"/>
+    <mergeCell ref="O191:Q191"/>
+    <mergeCell ref="F335:G335"/>
+    <mergeCell ref="K335:L335"/>
+    <mergeCell ref="F319:G319"/>
+    <mergeCell ref="K319:L319"/>
+    <mergeCell ref="K287:L287"/>
+    <mergeCell ref="K257:L257"/>
+    <mergeCell ref="K240:L240"/>
+    <mergeCell ref="J191:L191"/>
+    <mergeCell ref="J242:L242"/>
+    <mergeCell ref="O242:Q242"/>
+    <mergeCell ref="P225:Q225"/>
+    <mergeCell ref="J227:L227"/>
+    <mergeCell ref="X187:Y187"/>
+    <mergeCell ref="T133:U133"/>
+    <mergeCell ref="O134:P134"/>
+    <mergeCell ref="Y134:Z134"/>
+    <mergeCell ref="N182:P182"/>
+    <mergeCell ref="S182:T182"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/hand_sieved_data_modified.xlsx
+++ b/hand_sieved_data_modified.xlsx
@@ -146,9 +146,6 @@
     <t xml:space="preserve">0.625-0.125 </t>
   </si>
   <si>
-    <t xml:space="preserve">&gt; 2 </t>
-  </si>
-  <si>
     <t xml:space="preserve">0.500-1 </t>
   </si>
   <si>
@@ -159,6 +156,9 @@
   </si>
   <si>
     <t xml:space="preserve">0.0625- 0.125 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt;2 </t>
   </si>
 </sst>
 </file>
@@ -514,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA336"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" workbookViewId="0">
-      <selection activeCell="I157" sqref="I157"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="C146" sqref="C146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -567,7 +567,7 @@
         <v>99.11</v>
       </c>
       <c r="D2" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2">
         <v>2.1511999999999998</v>
@@ -766,7 +766,7 @@
         <v>111.67</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>2.1981999999999999</v>
@@ -935,7 +935,7 @@
         <v>98.65</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E16">
         <v>2.1758999999999999</v>
@@ -1103,7 +1103,7 @@
         <v>50.152999999999999</v>
       </c>
       <c r="D23" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E23">
         <v>2.2229999999999999</v>
@@ -1112,7 +1112,7 @@
         <v>2.5274000000000001</v>
       </c>
       <c r="G23">
-        <f>F23-E23</f>
+        <f t="shared" ref="G23:G43" si="3">F23-E23</f>
         <v>0.30440000000000023</v>
       </c>
     </row>
@@ -1136,7 +1136,7 @@
         <v>2.375</v>
       </c>
       <c r="G24">
-        <f>F24-E24</f>
+        <f t="shared" si="3"/>
         <v>0.15289999999999981</v>
       </c>
     </row>
@@ -1151,7 +1151,7 @@
         <v>50.152999999999999</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E25">
         <v>2.2052999999999998</v>
@@ -1160,7 +1160,7 @@
         <v>2.3592</v>
       </c>
       <c r="G25">
-        <f>F25-E25</f>
+        <f t="shared" si="3"/>
         <v>0.15390000000000015</v>
       </c>
     </row>
@@ -1175,7 +1175,7 @@
         <v>50.152999999999999</v>
       </c>
       <c r="D26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E26">
         <v>2.2170999999999998</v>
@@ -1184,7 +1184,7 @@
         <v>2.3675000000000002</v>
       </c>
       <c r="G26">
-        <f>F26-E26</f>
+        <f t="shared" si="3"/>
         <v>0.15040000000000031</v>
       </c>
     </row>
@@ -1199,7 +1199,7 @@
         <v>50.152999999999999</v>
       </c>
       <c r="D27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E27">
         <v>2.2166999999999999</v>
@@ -1208,7 +1208,7 @@
         <v>3.3441999999999998</v>
       </c>
       <c r="G27">
-        <f>F27-E27</f>
+        <f t="shared" si="3"/>
         <v>1.1274999999999999</v>
       </c>
     </row>
@@ -1223,7 +1223,7 @@
         <v>50.152999999999999</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E28">
         <v>2.2299000000000002</v>
@@ -1232,7 +1232,7 @@
         <v>14.279199999999999</v>
       </c>
       <c r="G28">
-        <f>F28-E28</f>
+        <f t="shared" si="3"/>
         <v>12.049299999999999</v>
       </c>
     </row>
@@ -1256,7 +1256,7 @@
         <v>18.309999999999999</v>
       </c>
       <c r="G29">
-        <f>F29-E29</f>
+        <f t="shared" si="3"/>
         <v>6.1899999999999995</v>
       </c>
     </row>
@@ -1271,7 +1271,7 @@
         <v>50.214300000000001</v>
       </c>
       <c r="D30" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E30">
         <v>2.2029999999999998</v>
@@ -1280,7 +1280,7 @@
         <v>2.3338000000000001</v>
       </c>
       <c r="G30">
-        <f>F30-E30</f>
+        <f t="shared" si="3"/>
         <v>0.13080000000000025</v>
       </c>
     </row>
@@ -1304,7 +1304,7 @@
         <v>2.3959999999999999</v>
       </c>
       <c r="G31">
-        <f>F31-E31</f>
+        <f t="shared" si="3"/>
         <v>0.17879999999999985</v>
       </c>
     </row>
@@ -1319,7 +1319,7 @@
         <v>50.214300000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32">
         <v>2.1997</v>
@@ -1328,7 +1328,7 @@
         <v>2.3469000000000002</v>
       </c>
       <c r="G32">
-        <f>F32-E32</f>
+        <f t="shared" si="3"/>
         <v>0.14720000000000022</v>
       </c>
     </row>
@@ -1343,7 +1343,7 @@
         <v>50.214300000000001</v>
       </c>
       <c r="D33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33">
         <v>2.2065000000000001</v>
@@ -1352,7 +1352,7 @@
         <v>2.3805999999999998</v>
       </c>
       <c r="G33">
-        <f>F33-E33</f>
+        <f t="shared" si="3"/>
         <v>0.1740999999999997</v>
       </c>
     </row>
@@ -1367,7 +1367,7 @@
         <v>50.214300000000001</v>
       </c>
       <c r="D34" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E34">
         <v>2.2016</v>
@@ -1376,7 +1376,7 @@
         <v>3.3206000000000002</v>
       </c>
       <c r="G34">
-        <f>F34-E34</f>
+        <f t="shared" si="3"/>
         <v>1.1190000000000002</v>
       </c>
       <c r="P34" s="12"/>
@@ -1400,7 +1400,7 @@
         <v>50.214300000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E35">
         <v>2.2225999999999999</v>
@@ -1409,7 +1409,7 @@
         <v>13.8889</v>
       </c>
       <c r="G35">
-        <f>F35-E35</f>
+        <f t="shared" si="3"/>
         <v>11.6663</v>
       </c>
     </row>
@@ -1433,7 +1433,7 @@
         <v>18.98</v>
       </c>
       <c r="G36">
-        <f>F36-E36</f>
+        <f t="shared" si="3"/>
         <v>6.93</v>
       </c>
     </row>
@@ -1448,7 +1448,7 @@
         <v>49.9739</v>
       </c>
       <c r="D37" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E37">
         <v>2.2119</v>
@@ -1457,7 +1457,7 @@
         <v>3.3849999999999998</v>
       </c>
       <c r="G37">
-        <f>F37-E37</f>
+        <f t="shared" si="3"/>
         <v>1.1730999999999998</v>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
         <v>2.3927999999999998</v>
       </c>
       <c r="G38">
-        <f>F38-E38</f>
+        <f t="shared" si="3"/>
         <v>0.17749999999999977</v>
       </c>
     </row>
@@ -1496,7 +1496,7 @@
         <v>49.9739</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>2.2149999999999999</v>
@@ -1505,7 +1505,7 @@
         <v>2.3490000000000002</v>
       </c>
       <c r="G39">
-        <f>F39-E39</f>
+        <f t="shared" si="3"/>
         <v>0.13400000000000034</v>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
         <v>49.9739</v>
       </c>
       <c r="D40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E40">
         <v>2.2242000000000002</v>
@@ -1529,7 +1529,7 @@
         <v>2.5215999999999998</v>
       </c>
       <c r="G40">
-        <f>F40-E40</f>
+        <f t="shared" si="3"/>
         <v>0.29739999999999966</v>
       </c>
     </row>
@@ -1544,7 +1544,7 @@
         <v>49.9739</v>
       </c>
       <c r="D41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E41">
         <v>2.2006000000000001</v>
@@ -1553,7 +1553,7 @@
         <v>3.6427999999999998</v>
       </c>
       <c r="G41">
-        <f>F41-E41</f>
+        <f t="shared" si="3"/>
         <v>1.4421999999999997</v>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
         <v>49.9739</v>
       </c>
       <c r="D42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E42">
         <v>2.2153</v>
@@ -1577,7 +1577,7 @@
         <v>15.960800000000001</v>
       </c>
       <c r="G42">
-        <f>F42-E42</f>
+        <f t="shared" si="3"/>
         <v>13.7455</v>
       </c>
     </row>
@@ -1601,7 +1601,7 @@
         <v>16.260000000000002</v>
       </c>
       <c r="G43">
-        <f>F43-E43</f>
+        <f t="shared" si="3"/>
         <v>4.2600000000000016</v>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
         <v>50.152999999999999</v>
       </c>
       <c r="D44" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E44">
         <v>2.2229999999999999</v>
@@ -1625,7 +1625,7 @@
         <v>2.5274000000000001</v>
       </c>
       <c r="G44">
-        <f t="shared" ref="G44:G64" si="3">F44-E44</f>
+        <f t="shared" ref="G44:G64" si="4">F44-E44</f>
         <v>0.30440000000000023</v>
       </c>
     </row>
@@ -1649,7 +1649,7 @@
         <v>2.375</v>
       </c>
       <c r="G45">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15289999999999981</v>
       </c>
     </row>
@@ -1664,7 +1664,7 @@
         <v>50.152999999999999</v>
       </c>
       <c r="D46" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E46">
         <v>2.2052999999999998</v>
@@ -1673,7 +1673,7 @@
         <v>2.3592</v>
       </c>
       <c r="G46">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15390000000000015</v>
       </c>
     </row>
@@ -1688,7 +1688,7 @@
         <v>50.152999999999999</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E47">
         <v>2.2170999999999998</v>
@@ -1697,7 +1697,7 @@
         <v>2.3675000000000002</v>
       </c>
       <c r="G47">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.15040000000000031</v>
       </c>
     </row>
@@ -1712,7 +1712,7 @@
         <v>50.152999999999999</v>
       </c>
       <c r="D48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E48">
         <v>2.2166999999999999</v>
@@ -1721,7 +1721,7 @@
         <v>3.3441999999999998</v>
       </c>
       <c r="G48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1274999999999999</v>
       </c>
     </row>
@@ -1736,7 +1736,7 @@
         <v>50.152999999999999</v>
       </c>
       <c r="D49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E49">
         <v>2.2299000000000002</v>
@@ -1745,7 +1745,7 @@
         <v>14.279199999999999</v>
       </c>
       <c r="G49">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>12.049299999999999</v>
       </c>
     </row>
@@ -1769,7 +1769,7 @@
         <v>18.309999999999999</v>
       </c>
       <c r="G50">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.1899999999999995</v>
       </c>
     </row>
@@ -1784,7 +1784,7 @@
         <v>50.214300000000001</v>
       </c>
       <c r="D51" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E51">
         <v>2.2029999999999998</v>
@@ -1793,7 +1793,7 @@
         <v>2.3338000000000001</v>
       </c>
       <c r="G51">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13080000000000025</v>
       </c>
     </row>
@@ -1817,7 +1817,7 @@
         <v>2.3959999999999999</v>
       </c>
       <c r="G52">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17879999999999985</v>
       </c>
     </row>
@@ -1832,7 +1832,7 @@
         <v>50.214300000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E53">
         <v>2.1997</v>
@@ -1841,7 +1841,7 @@
         <v>2.3469000000000002</v>
       </c>
       <c r="G53">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.14720000000000022</v>
       </c>
     </row>
@@ -1856,7 +1856,7 @@
         <v>50.214300000000001</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E54">
         <v>2.2065000000000001</v>
@@ -1865,7 +1865,7 @@
         <v>2.3805999999999998</v>
       </c>
       <c r="G54">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.1740999999999997</v>
       </c>
     </row>
@@ -1880,7 +1880,7 @@
         <v>50.214300000000001</v>
       </c>
       <c r="D55" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E55">
         <v>2.2016</v>
@@ -1889,7 +1889,7 @@
         <v>3.3206000000000002</v>
       </c>
       <c r="G55">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1190000000000002</v>
       </c>
     </row>
@@ -1904,7 +1904,7 @@
         <v>50.214300000000001</v>
       </c>
       <c r="D56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E56">
         <v>2.2225999999999999</v>
@@ -1913,7 +1913,7 @@
         <v>13.8889</v>
       </c>
       <c r="G56">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>11.6663</v>
       </c>
     </row>
@@ -1937,7 +1937,7 @@
         <v>18.98</v>
       </c>
       <c r="G57">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.93</v>
       </c>
     </row>
@@ -1952,7 +1952,7 @@
         <v>49.9739</v>
       </c>
       <c r="D58" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E58">
         <v>2.2119</v>
@@ -1961,7 +1961,7 @@
         <v>3.3849999999999998</v>
       </c>
       <c r="G58">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.1730999999999998</v>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
         <v>2.3927999999999998</v>
       </c>
       <c r="G59">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.17749999999999977</v>
       </c>
     </row>
@@ -2000,7 +2000,7 @@
         <v>49.9739</v>
       </c>
       <c r="D60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E60">
         <v>2.2149999999999999</v>
@@ -2009,7 +2009,7 @@
         <v>2.3490000000000002</v>
       </c>
       <c r="G60">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13400000000000034</v>
       </c>
     </row>
@@ -2024,7 +2024,7 @@
         <v>49.9739</v>
       </c>
       <c r="D61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E61">
         <v>2.2242000000000002</v>
@@ -2033,7 +2033,7 @@
         <v>2.5215999999999998</v>
       </c>
       <c r="G61">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.29739999999999966</v>
       </c>
     </row>
@@ -2048,7 +2048,7 @@
         <v>49.9739</v>
       </c>
       <c r="D62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E62">
         <v>2.2006000000000001</v>
@@ -2057,7 +2057,7 @@
         <v>3.6427999999999998</v>
       </c>
       <c r="G62">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.4421999999999997</v>
       </c>
     </row>
@@ -2072,7 +2072,7 @@
         <v>49.9739</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E63">
         <v>2.2153</v>
@@ -2081,7 +2081,7 @@
         <v>15.960800000000001</v>
       </c>
       <c r="G63">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>13.7455</v>
       </c>
     </row>
@@ -2105,7 +2105,7 @@
         <v>16.260000000000002</v>
       </c>
       <c r="G64">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.2600000000000016</v>
       </c>
     </row>
@@ -2120,7 +2120,7 @@
         <v>50.08</v>
       </c>
       <c r="D65" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E65">
         <v>2.2271999999999998</v>
@@ -2129,7 +2129,7 @@
         <v>2.7585999999999999</v>
       </c>
       <c r="G65">
-        <f t="shared" ref="G65:G75" si="4">F65-E65</f>
+        <f t="shared" ref="G65:G75" si="5">F65-E65</f>
         <v>0.53140000000000009</v>
       </c>
     </row>
@@ -2153,7 +2153,7 @@
         <v>9.9289000000000005</v>
       </c>
       <c r="G66">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>7.7292000000000005</v>
       </c>
     </row>
@@ -2168,7 +2168,7 @@
         <v>50.08</v>
       </c>
       <c r="D67" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E67">
         <v>2.1966999999999999</v>
@@ -2177,7 +2177,7 @@
         <v>31.273700000000002</v>
       </c>
       <c r="G67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>29.077000000000002</v>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
         <v>50.08</v>
       </c>
       <c r="D68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E68">
         <v>2.2530000000000001</v>
@@ -2201,7 +2201,7 @@
         <v>7.5494000000000003</v>
       </c>
       <c r="G68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>5.2964000000000002</v>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
         <v>50.08</v>
       </c>
       <c r="D69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E69">
         <v>2.1907000000000001</v>
@@ -2225,7 +2225,7 @@
         <v>3.2311000000000001</v>
       </c>
       <c r="G69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.0404</v>
       </c>
     </row>
@@ -2240,7 +2240,7 @@
         <v>50.08</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E70">
         <v>2.3243999999999998</v>
@@ -2249,7 +2249,7 @@
         <v>2.5724</v>
       </c>
       <c r="G70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.24800000000000022</v>
       </c>
     </row>
@@ -2273,7 +2273,7 @@
         <v>14.4</v>
       </c>
       <c r="G71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.34</v>
       </c>
     </row>
@@ -2288,7 +2288,7 @@
         <v>50.03</v>
       </c>
       <c r="D72" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E72">
         <v>2.2406999999999999</v>
@@ -2297,7 +2297,7 @@
         <v>3.1456</v>
       </c>
       <c r="G72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.90490000000000004</v>
       </c>
     </row>
@@ -2321,7 +2321,7 @@
         <v>11.8307</v>
       </c>
       <c r="G73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>9.5957000000000008</v>
       </c>
     </row>
@@ -2336,7 +2336,7 @@
         <v>50.03</v>
       </c>
       <c r="D74" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E74">
         <v>2.2010000000000001</v>
@@ -2345,7 +2345,7 @@
         <v>29.123699999999999</v>
       </c>
       <c r="G74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>26.922699999999999</v>
       </c>
     </row>
@@ -2360,7 +2360,7 @@
         <v>50.03</v>
       </c>
       <c r="D75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E75">
         <v>2.2557999999999998</v>
@@ -2369,7 +2369,7 @@
         <v>7.2332999999999998</v>
       </c>
       <c r="G75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.9775</v>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
         <v>50.03</v>
       </c>
       <c r="D76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E76">
         <v>2.2364999999999999</v>
@@ -2393,7 +2393,7 @@
         <v>2.8180000000000001</v>
       </c>
       <c r="G76">
-        <f>F76-E76</f>
+        <f t="shared" ref="G76:G109" si="6">F76-E76</f>
         <v>0.58150000000000013</v>
       </c>
     </row>
@@ -2408,7 +2408,7 @@
         <v>50.03</v>
       </c>
       <c r="D77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E77">
         <v>2.2368000000000001</v>
@@ -2417,7 +2417,7 @@
         <v>2.4218000000000002</v>
       </c>
       <c r="G77">
-        <f>F77-E77</f>
+        <f t="shared" si="6"/>
         <v>0.18500000000000005</v>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
         <v>15.76</v>
       </c>
       <c r="G78">
-        <f>F78-E78</f>
+        <f t="shared" si="6"/>
         <v>3.7099999999999991</v>
       </c>
       <c r="H78" s="2"/>
@@ -2457,7 +2457,7 @@
         <v>50.05</v>
       </c>
       <c r="D79" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E79">
         <v>1.2595000000000001</v>
@@ -2466,7 +2466,7 @@
         <v>1.8945000000000001</v>
       </c>
       <c r="G79">
-        <f>F79-E79</f>
+        <f t="shared" si="6"/>
         <v>0.63500000000000001</v>
       </c>
     </row>
@@ -2490,7 +2490,7 @@
         <v>10.7417</v>
       </c>
       <c r="G80">
-        <f>F80-E80</f>
+        <f t="shared" si="6"/>
         <v>9.4780999999999995</v>
       </c>
       <c r="R80" s="7"/>
@@ -2507,7 +2507,7 @@
         <v>50.05</v>
       </c>
       <c r="D81" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E81">
         <v>2.1850999999999998</v>
@@ -2516,7 +2516,7 @@
         <v>27.6266</v>
       </c>
       <c r="G81">
-        <f>F81-E81</f>
+        <f t="shared" si="6"/>
         <v>25.441500000000001</v>
       </c>
       <c r="R81" s="7"/>
@@ -2533,7 +2533,7 @@
         <v>50.05</v>
       </c>
       <c r="D82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E82">
         <v>2.1972999999999998</v>
@@ -2542,7 +2542,7 @@
         <v>11.6435</v>
       </c>
       <c r="G82">
-        <f>F82-E82</f>
+        <f t="shared" si="6"/>
         <v>9.4461999999999993</v>
       </c>
       <c r="R82" s="7"/>
@@ -2559,7 +2559,7 @@
         <v>50.05</v>
       </c>
       <c r="D83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E83">
         <v>2.2465999999999999</v>
@@ -2568,7 +2568,7 @@
         <v>2.5966999999999998</v>
       </c>
       <c r="G83">
-        <f>F83-E83</f>
+        <f t="shared" si="6"/>
         <v>0.35009999999999986</v>
       </c>
       <c r="R83" s="7"/>
@@ -2585,7 +2585,7 @@
         <v>50.05</v>
       </c>
       <c r="D84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E84">
         <v>1.2765</v>
@@ -2594,7 +2594,7 @@
         <v>1.6495</v>
       </c>
       <c r="G84">
-        <f>F84-E84</f>
+        <f t="shared" si="6"/>
         <v>0.373</v>
       </c>
       <c r="R84" s="7"/>
@@ -2620,7 +2620,7 @@
         <v>15.92</v>
       </c>
       <c r="G85">
-        <f>F85-E85</f>
+        <f t="shared" si="6"/>
         <v>3.7899999999999991</v>
       </c>
       <c r="R85" s="7"/>
@@ -2637,7 +2637,7 @@
         <v>50.08</v>
       </c>
       <c r="D86" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E86">
         <v>2.2271999999999998</v>
@@ -2646,7 +2646,7 @@
         <v>2.7585999999999999</v>
       </c>
       <c r="G86">
-        <f>F86-E86</f>
+        <f t="shared" si="6"/>
         <v>0.53140000000000009</v>
       </c>
       <c r="R86" s="7"/>
@@ -2672,7 +2672,7 @@
         <v>9.9289000000000005</v>
       </c>
       <c r="G87">
-        <f>F87-E87</f>
+        <f t="shared" si="6"/>
         <v>7.7292000000000005</v>
       </c>
       <c r="R87" s="7"/>
@@ -2689,7 +2689,7 @@
         <v>50.08</v>
       </c>
       <c r="D88" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E88">
         <v>2.1966999999999999</v>
@@ -2698,7 +2698,7 @@
         <v>31.273700000000002</v>
       </c>
       <c r="G88">
-        <f>F88-E88</f>
+        <f t="shared" si="6"/>
         <v>29.077000000000002</v>
       </c>
       <c r="R88" s="7"/>
@@ -2715,7 +2715,7 @@
         <v>50.08</v>
       </c>
       <c r="D89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E89">
         <v>2.2530000000000001</v>
@@ -2724,7 +2724,7 @@
         <v>7.5494000000000003</v>
       </c>
       <c r="G89">
-        <f>F89-E89</f>
+        <f t="shared" si="6"/>
         <v>5.2964000000000002</v>
       </c>
       <c r="P89" s="7"/>
@@ -2743,7 +2743,7 @@
         <v>50.08</v>
       </c>
       <c r="D90" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E90">
         <v>2.1907000000000001</v>
@@ -2752,7 +2752,7 @@
         <v>3.2311000000000001</v>
       </c>
       <c r="G90">
-        <f>F90-E90</f>
+        <f t="shared" si="6"/>
         <v>1.0404</v>
       </c>
       <c r="P90" s="13"/>
@@ -2771,7 +2771,7 @@
         <v>50.08</v>
       </c>
       <c r="D91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E91">
         <v>2.3243999999999998</v>
@@ -2780,7 +2780,7 @@
         <v>2.5724</v>
       </c>
       <c r="G91">
-        <f>F91-E91</f>
+        <f t="shared" si="6"/>
         <v>0.24800000000000022</v>
       </c>
       <c r="P91" s="7"/>
@@ -2808,7 +2808,7 @@
         <v>14.4</v>
       </c>
       <c r="G92">
-        <f>F92-E92</f>
+        <f t="shared" si="6"/>
         <v>2.34</v>
       </c>
       <c r="H92"/>
@@ -2828,7 +2828,7 @@
         <v>50.03</v>
       </c>
       <c r="D93" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E93">
         <v>2.2406999999999999</v>
@@ -2837,7 +2837,7 @@
         <v>3.1456</v>
       </c>
       <c r="G93">
-        <f>F93-E93</f>
+        <f t="shared" si="6"/>
         <v>0.90490000000000004</v>
       </c>
     </row>
@@ -2861,7 +2861,7 @@
         <v>11.8307</v>
       </c>
       <c r="G94">
-        <f>F94-E94</f>
+        <f t="shared" si="6"/>
         <v>9.5957000000000008</v>
       </c>
     </row>
@@ -2876,7 +2876,7 @@
         <v>50.03</v>
       </c>
       <c r="D95" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E95">
         <v>2.2010000000000001</v>
@@ -2885,7 +2885,7 @@
         <v>29.123699999999999</v>
       </c>
       <c r="G95">
-        <f>F95-E95</f>
+        <f t="shared" si="6"/>
         <v>26.922699999999999</v>
       </c>
     </row>
@@ -2900,7 +2900,7 @@
         <v>50.03</v>
       </c>
       <c r="D96" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E96">
         <v>2.2557999999999998</v>
@@ -2909,7 +2909,7 @@
         <v>7.2332999999999998</v>
       </c>
       <c r="G96">
-        <f>F96-E96</f>
+        <f t="shared" si="6"/>
         <v>4.9775</v>
       </c>
     </row>
@@ -2924,7 +2924,7 @@
         <v>50.03</v>
       </c>
       <c r="D97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E97">
         <v>2.2364999999999999</v>
@@ -2933,7 +2933,7 @@
         <v>2.8180000000000001</v>
       </c>
       <c r="G97">
-        <f>F97-E97</f>
+        <f t="shared" si="6"/>
         <v>0.58150000000000013</v>
       </c>
     </row>
@@ -2948,7 +2948,7 @@
         <v>50.03</v>
       </c>
       <c r="D98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E98">
         <v>2.2368000000000001</v>
@@ -2957,7 +2957,7 @@
         <v>2.4218000000000002</v>
       </c>
       <c r="G98">
-        <f>F98-E98</f>
+        <f t="shared" si="6"/>
         <v>0.18500000000000005</v>
       </c>
     </row>
@@ -2981,7 +2981,7 @@
         <v>15.76</v>
       </c>
       <c r="G99">
-        <f>F99-E99</f>
+        <f t="shared" si="6"/>
         <v>3.7099999999999991</v>
       </c>
     </row>
@@ -2996,7 +2996,7 @@
         <v>50.05</v>
       </c>
       <c r="D100" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E100">
         <v>1.2595000000000001</v>
@@ -3005,7 +3005,7 @@
         <v>1.8945000000000001</v>
       </c>
       <c r="G100">
-        <f>F100-E100</f>
+        <f t="shared" si="6"/>
         <v>0.63500000000000001</v>
       </c>
     </row>
@@ -3029,7 +3029,7 @@
         <v>10.7417</v>
       </c>
       <c r="G101">
-        <f>F101-E101</f>
+        <f t="shared" si="6"/>
         <v>9.4780999999999995</v>
       </c>
     </row>
@@ -3044,7 +3044,7 @@
         <v>50.05</v>
       </c>
       <c r="D102" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E102">
         <v>2.1850999999999998</v>
@@ -3053,7 +3053,7 @@
         <v>27.6266</v>
       </c>
       <c r="G102">
-        <f>F102-E102</f>
+        <f t="shared" si="6"/>
         <v>25.441500000000001</v>
       </c>
     </row>
@@ -3068,7 +3068,7 @@
         <v>50.05</v>
       </c>
       <c r="D103" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E103">
         <v>2.1972999999999998</v>
@@ -3077,7 +3077,7 @@
         <v>11.6435</v>
       </c>
       <c r="G103">
-        <f>F103-E103</f>
+        <f t="shared" si="6"/>
         <v>9.4461999999999993</v>
       </c>
     </row>
@@ -3092,7 +3092,7 @@
         <v>50.05</v>
       </c>
       <c r="D104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E104">
         <v>2.2465999999999999</v>
@@ -3101,7 +3101,7 @@
         <v>2.5966999999999998</v>
       </c>
       <c r="G104">
-        <f>F104-E104</f>
+        <f t="shared" si="6"/>
         <v>0.35009999999999986</v>
       </c>
     </row>
@@ -3116,7 +3116,7 @@
         <v>50.05</v>
       </c>
       <c r="D105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E105">
         <v>1.2765</v>
@@ -3125,7 +3125,7 @@
         <v>1.6495</v>
       </c>
       <c r="G105">
-        <f>F105-E105</f>
+        <f t="shared" si="6"/>
         <v>0.373</v>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
         <v>15.92</v>
       </c>
       <c r="G106">
-        <f>F106-E106</f>
+        <f t="shared" si="6"/>
         <v>3.7899999999999991</v>
       </c>
     </row>
@@ -3164,7 +3164,7 @@
         <v>50</v>
       </c>
       <c r="D107" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E107">
         <v>2.2492000000000001</v>
@@ -3173,7 +3173,7 @@
         <v>2.5367999999999999</v>
       </c>
       <c r="G107">
-        <f>F107-E107</f>
+        <f t="shared" si="6"/>
         <v>0.28759999999999986</v>
       </c>
     </row>
@@ -3197,7 +3197,7 @@
         <v>2.5648</v>
       </c>
       <c r="G108">
-        <f>F108-E108</f>
+        <f t="shared" si="6"/>
         <v>0.38759999999999994</v>
       </c>
     </row>
@@ -3212,7 +3212,7 @@
         <v>50</v>
       </c>
       <c r="D109" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E109">
         <v>2.1713</v>
@@ -3221,7 +3221,7 @@
         <v>5.0747</v>
       </c>
       <c r="G109">
-        <f>F109-E109</f>
+        <f t="shared" si="6"/>
         <v>2.9034</v>
       </c>
     </row>
@@ -3236,7 +3236,7 @@
         <v>50</v>
       </c>
       <c r="D110" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E110">
         <v>2.1688000000000001</v>
@@ -3245,7 +3245,7 @@
         <v>11.0769</v>
       </c>
       <c r="G110">
-        <f t="shared" ref="G110:G141" si="5">F110-E110</f>
+        <f t="shared" ref="G110:G141" si="7">F110-E110</f>
         <v>8.908100000000001</v>
       </c>
     </row>
@@ -3260,7 +3260,7 @@
         <v>50</v>
       </c>
       <c r="D111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E111">
         <v>2.1758000000000002</v>
@@ -3269,7 +3269,7 @@
         <v>14.8833</v>
       </c>
       <c r="G111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.7075</v>
       </c>
     </row>
@@ -3284,7 +3284,7 @@
         <v>50</v>
       </c>
       <c r="D112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E112">
         <v>2.1663000000000001</v>
@@ -3293,7 +3293,7 @@
         <v>4.9546999999999999</v>
       </c>
       <c r="G112">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7883999999999998</v>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
         <v>17.45</v>
       </c>
       <c r="G113">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.4699999999999989</v>
       </c>
     </row>
@@ -3341,7 +3341,7 @@
         <v>20.84</v>
       </c>
       <c r="G114">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5.0399999999999991</v>
       </c>
     </row>
@@ -3365,7 +3365,7 @@
         <v>17.48</v>
       </c>
       <c r="G115">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1.67</v>
       </c>
     </row>
@@ -3389,7 +3389,7 @@
         <v>29.3</v>
       </c>
       <c r="G116">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.510000000000002</v>
       </c>
     </row>
@@ -3404,7 +3404,7 @@
         <v>50.15</v>
       </c>
       <c r="D117" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E117">
         <v>2.1052</v>
@@ -3413,7 +3413,7 @@
         <v>2.5142000000000002</v>
       </c>
       <c r="G117">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.40900000000000025</v>
       </c>
     </row>
@@ -3437,7 +3437,7 @@
         <v>2.6718000000000002</v>
       </c>
       <c r="G118">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.54260000000000019</v>
       </c>
     </row>
@@ -3452,7 +3452,7 @@
         <v>50.15</v>
       </c>
       <c r="D119" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E119">
         <v>2.0525000000000002</v>
@@ -3461,7 +3461,7 @@
         <v>5.5564999999999998</v>
       </c>
       <c r="G119">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.5039999999999996</v>
       </c>
     </row>
@@ -3476,7 +3476,7 @@
         <v>50.15</v>
       </c>
       <c r="D120" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E120">
         <v>2.1781000000000001</v>
@@ -3485,7 +3485,7 @@
         <v>11.896699999999999</v>
       </c>
       <c r="G120">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>9.7185999999999986</v>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
         <v>50.15</v>
       </c>
       <c r="D121" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E121">
         <v>2.1987999999999999</v>
@@ -3509,7 +3509,7 @@
         <v>14.0618</v>
       </c>
       <c r="G121">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>11.863</v>
       </c>
     </row>
@@ -3524,7 +3524,7 @@
         <v>50.15</v>
       </c>
       <c r="D122" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E122">
         <v>2.1379999999999999</v>
@@ -3533,7 +3533,7 @@
         <v>4.7112999999999996</v>
       </c>
       <c r="G122">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.5732999999999997</v>
       </c>
     </row>
@@ -3557,7 +3557,7 @@
         <v>20.2</v>
       </c>
       <c r="G123">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.1099999999999994</v>
       </c>
     </row>
@@ -3581,7 +3581,7 @@
         <v>26.87</v>
       </c>
       <c r="G124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>10.77</v>
       </c>
     </row>
@@ -3605,7 +3605,7 @@
         <v>21.92</v>
       </c>
       <c r="G125">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.5700000000000021</v>
       </c>
     </row>
@@ -3620,7 +3620,7 @@
         <v>50.01</v>
       </c>
       <c r="D126" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E126">
         <v>2.0438000000000001</v>
@@ -3629,7 +3629,7 @@
         <v>2.3174000000000001</v>
       </c>
       <c r="G126">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.27360000000000007</v>
       </c>
     </row>
@@ -3653,7 +3653,7 @@
         <v>2.3675999999999999</v>
       </c>
       <c r="G127">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.29479999999999995</v>
       </c>
     </row>
@@ -3668,7 +3668,7 @@
         <v>50.01</v>
       </c>
       <c r="D128" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E128">
         <v>2.0419999999999998</v>
@@ -3677,7 +3677,7 @@
         <v>5.3821000000000003</v>
       </c>
       <c r="G128">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3.3401000000000005</v>
       </c>
     </row>
@@ -3692,7 +3692,7 @@
         <v>50.01</v>
       </c>
       <c r="D129" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E129">
         <v>2.1863999999999999</v>
@@ -3701,7 +3701,7 @@
         <v>10.737399999999999</v>
       </c>
       <c r="G129">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.5509999999999984</v>
       </c>
     </row>
@@ -3716,7 +3716,7 @@
         <v>50.01</v>
       </c>
       <c r="D130" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E130">
         <v>2.1063999999999998</v>
@@ -3725,7 +3725,7 @@
         <v>14.6777</v>
       </c>
       <c r="G130">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>12.571300000000001</v>
       </c>
     </row>
@@ -3740,7 +3740,7 @@
         <v>50.01</v>
       </c>
       <c r="D131" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E131">
         <v>2.2099000000000002</v>
@@ -3749,7 +3749,7 @@
         <v>5.0068000000000001</v>
       </c>
       <c r="G131">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.7968999999999999</v>
       </c>
     </row>
@@ -3773,7 +3773,7 @@
         <v>20.07</v>
       </c>
       <c r="G132">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.1099999999999994</v>
       </c>
     </row>
@@ -3797,7 +3797,7 @@
         <v>23.71</v>
       </c>
       <c r="G133">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>7.8900000000000006</v>
       </c>
       <c r="T133" s="14"/>
@@ -3824,7 +3824,7 @@
         <v>20.75</v>
       </c>
       <c r="G134">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.6499999999999986</v>
       </c>
       <c r="O134" s="14"/>
@@ -3853,7 +3853,7 @@
         <v>20.65</v>
       </c>
       <c r="G135">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.32</v>
       </c>
     </row>
@@ -3868,7 +3868,7 @@
         <v>50.08</v>
       </c>
       <c r="D136" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E136">
         <v>2.1415999999999999</v>
@@ -3877,7 +3877,7 @@
         <v>2.1415999999999999</v>
       </c>
       <c r="G136">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -3901,7 +3901,7 @@
         <v>2.2313999999999998</v>
       </c>
       <c r="G137">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2.6499999999999968E-2</v>
       </c>
     </row>
@@ -3916,7 +3916,7 @@
         <v>50.08</v>
       </c>
       <c r="D138" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E138">
         <v>2.1153</v>
@@ -3925,7 +3925,7 @@
         <v>2.1823000000000001</v>
       </c>
       <c r="G138">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>6.7000000000000171E-2</v>
       </c>
     </row>
@@ -3940,7 +3940,7 @@
         <v>50.08</v>
       </c>
       <c r="D139" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E139">
         <v>2.1602000000000001</v>
@@ -3949,7 +3949,7 @@
         <v>2.8380999999999998</v>
       </c>
       <c r="G139">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0.67789999999999973</v>
       </c>
     </row>
@@ -3964,7 +3964,7 @@
         <v>50.08</v>
       </c>
       <c r="D140" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E140">
         <v>2.0619000000000001</v>
@@ -3973,7 +3973,7 @@
         <v>6.4965000000000002</v>
       </c>
       <c r="G140">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4.4345999999999997</v>
       </c>
     </row>
@@ -3988,7 +3988,7 @@
         <v>50.08</v>
       </c>
       <c r="D141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E141">
         <v>2.1408</v>
@@ -3997,7 +3997,7 @@
         <v>10.620100000000001</v>
       </c>
       <c r="G141">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>8.4793000000000003</v>
       </c>
     </row>
@@ -4021,7 +4021,7 @@
         <v>15.78</v>
       </c>
       <c r="G142">
-        <f t="shared" ref="G142:G164" si="6">F142-E142</f>
+        <f t="shared" ref="G142:G164" si="8">F142-E142</f>
         <v>3.9999999999999147E-2</v>
       </c>
     </row>
@@ -4045,7 +4045,7 @@
         <v>18.28</v>
       </c>
       <c r="G143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2.3500000000000014</v>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
         <v>48.56</v>
       </c>
       <c r="G144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>32.430000000000007</v>
       </c>
     </row>
@@ -4093,7 +4093,7 @@
         <v>16.3</v>
       </c>
       <c r="G145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5.0000000000000711E-2</v>
       </c>
     </row>
@@ -4108,7 +4108,7 @@
         <v>50.02</v>
       </c>
       <c r="D146" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E146">
         <v>2.1642000000000001</v>
@@ -4140,7 +4140,7 @@
         <v>2.1040999999999999</v>
       </c>
       <c r="G147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.3999999999997392E-3</v>
       </c>
     </row>
@@ -4155,7 +4155,7 @@
         <v>50.02</v>
       </c>
       <c r="D148" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E148">
         <v>2.1762999999999999</v>
@@ -4164,7 +4164,7 @@
         <v>2.2688999999999999</v>
       </c>
       <c r="G148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>9.2600000000000016E-2</v>
       </c>
     </row>
@@ -4179,7 +4179,7 @@
         <v>50.02</v>
       </c>
       <c r="D149" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E149">
         <v>2.1524999999999999</v>
@@ -4188,7 +4188,7 @@
         <v>2.8311000000000002</v>
       </c>
       <c r="G149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.67860000000000031</v>
       </c>
     </row>
@@ -4203,7 +4203,7 @@
         <v>50.02</v>
       </c>
       <c r="D150" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E150">
         <v>2.1797</v>
@@ -4212,7 +4212,7 @@
         <v>5.7694999999999999</v>
       </c>
       <c r="G150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.5897999999999999</v>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
         <v>50.02</v>
       </c>
       <c r="D151" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E151">
         <v>2.1941000000000002</v>
@@ -4236,7 +4236,7 @@
         <v>9.2599</v>
       </c>
       <c r="G151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.0657999999999994</v>
       </c>
     </row>
@@ -4260,7 +4260,7 @@
         <v>15.81</v>
       </c>
       <c r="G152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.0000000000001137E-2</v>
       </c>
     </row>
@@ -4284,7 +4284,7 @@
         <v>15.95</v>
       </c>
       <c r="G153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.9999999999999147E-2</v>
       </c>
     </row>
@@ -4308,7 +4308,7 @@
         <v>48.84</v>
       </c>
       <c r="G154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>32.760000000000005</v>
       </c>
     </row>
@@ -4332,7 +4332,7 @@
         <v>19.690000000000001</v>
       </c>
       <c r="G155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.6500000000000021</v>
       </c>
     </row>
@@ -4347,7 +4347,7 @@
         <v>50.01</v>
       </c>
       <c r="D156" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E156">
         <v>2.2315</v>
@@ -4356,7 +4356,7 @@
         <v>2.3748999999999998</v>
       </c>
       <c r="G156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.14339999999999975</v>
       </c>
     </row>
@@ -4380,7 +4380,7 @@
         <v>2.2532999999999999</v>
       </c>
       <c r="G157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6.7499999999999893E-2</v>
       </c>
     </row>
@@ -4395,7 +4395,7 @@
         <v>50.01</v>
       </c>
       <c r="D158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E158">
         <v>2.1413000000000002</v>
@@ -4404,7 +4404,7 @@
         <v>2.4247999999999998</v>
       </c>
       <c r="G158">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.28349999999999964</v>
       </c>
     </row>
@@ -4419,7 +4419,7 @@
         <v>50.01</v>
       </c>
       <c r="D159" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E159">
         <v>2.2054</v>
@@ -4428,7 +4428,7 @@
         <v>3.3437000000000001</v>
       </c>
       <c r="G159">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1.1383000000000001</v>
       </c>
     </row>
@@ -4443,7 +4443,7 @@
         <v>50.01</v>
       </c>
       <c r="D160" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E160">
         <v>2.1722000000000001</v>
@@ -4452,7 +4452,7 @@
         <v>5.9775999999999998</v>
       </c>
       <c r="G160">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>3.8053999999999997</v>
       </c>
       <c r="X160" s="14"/>
@@ -4469,7 +4469,7 @@
         <v>50.01</v>
       </c>
       <c r="D161" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E161">
         <v>2.1059999999999999</v>
@@ -4478,7 +4478,7 @@
         <v>9.5892999999999997</v>
       </c>
       <c r="G161">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>7.4832999999999998</v>
       </c>
     </row>
@@ -4502,7 +4502,7 @@
         <v>15.93</v>
       </c>
       <c r="G162">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0.75999999999999979</v>
       </c>
     </row>
@@ -4526,7 +4526,7 @@
         <v>20.09</v>
       </c>
       <c r="G163">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>4.8699999999999992</v>
       </c>
     </row>
@@ -4550,7 +4550,7 @@
         <v>47.02</v>
       </c>
       <c r="G164">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>31.730000000000004</v>
       </c>
     </row>
@@ -4565,7 +4565,7 @@
         <v>100.15</v>
       </c>
       <c r="D165" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E165">
         <v>2.1027</v>
@@ -4574,7 +4574,7 @@
         <v>5.1978999999999997</v>
       </c>
       <c r="G165">
-        <f t="shared" ref="G165:G175" si="7">E165</f>
+        <f t="shared" ref="G165:G175" si="9">E165</f>
         <v>2.1027</v>
       </c>
     </row>
@@ -4598,7 +4598,7 @@
         <v>10.6663</v>
       </c>
       <c r="G166">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.1065999999999998</v>
       </c>
     </row>
@@ -4613,7 +4613,7 @@
         <v>100.15</v>
       </c>
       <c r="D167" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E167">
         <v>2.1926999999999999</v>
@@ -4622,7 +4622,7 @@
         <v>36.496699999999997</v>
       </c>
       <c r="G167">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.1926999999999999</v>
       </c>
     </row>
@@ -4637,7 +4637,7 @@
         <v>100.15</v>
       </c>
       <c r="D168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E168">
         <v>2.1562000000000001</v>
@@ -4646,7 +4646,7 @@
         <v>22.6462</v>
       </c>
       <c r="G168">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.1562000000000001</v>
       </c>
     </row>
@@ -4661,7 +4661,7 @@
         <v>100.15</v>
       </c>
       <c r="D169" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E169">
         <v>2.1244999999999998</v>
@@ -4670,7 +4670,7 @@
         <v>6.7237999999999998</v>
       </c>
       <c r="G169">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.1244999999999998</v>
       </c>
     </row>
@@ -4685,7 +4685,7 @@
         <v>100.15</v>
       </c>
       <c r="D170" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E170">
         <v>2.2080000000000002</v>
@@ -4694,7 +4694,7 @@
         <v>3.6193</v>
       </c>
       <c r="G170">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2.2080000000000002</v>
       </c>
     </row>
@@ -4718,7 +4718,7 @@
         <v>16.39</v>
       </c>
       <c r="G171">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.31</v>
       </c>
     </row>
@@ -4742,7 +4742,7 @@
         <v>16.47</v>
       </c>
       <c r="G172">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.33</v>
       </c>
     </row>
@@ -4766,7 +4766,7 @@
         <v>16.739999999999998</v>
       </c>
       <c r="G173">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.46</v>
       </c>
     </row>
@@ -4790,7 +4790,7 @@
         <v>17.149999999999999</v>
       </c>
       <c r="G174">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.23</v>
       </c>
     </row>
@@ -4814,7 +4814,7 @@
         <v>38.69</v>
       </c>
       <c r="G175">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>15.25</v>
       </c>
     </row>
@@ -4829,7 +4829,7 @@
         <v>100.63</v>
       </c>
       <c r="D176" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E176">
         <v>2.0733000000000001</v>
@@ -4838,7 +4838,7 @@
         <v>5.2640000000000002</v>
       </c>
       <c r="G176">
-        <f t="shared" ref="G176:G186" si="8">F176-E176</f>
+        <f t="shared" ref="G176:G186" si="10">F176-E176</f>
         <v>3.1907000000000001</v>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
         <v>10.258699999999999</v>
       </c>
       <c r="G177">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>8.1560999999999986</v>
       </c>
       <c r="H177" s="9"/>
@@ -4878,7 +4878,7 @@
         <v>100.63</v>
       </c>
       <c r="D178" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E178">
         <v>2.1553</v>
@@ -4887,7 +4887,7 @@
         <v>35.517800000000001</v>
       </c>
       <c r="G178">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>33.362500000000004</v>
       </c>
     </row>
@@ -4902,7 +4902,7 @@
         <v>100.63</v>
       </c>
       <c r="D179" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E179">
         <v>2.1080000000000001</v>
@@ -4911,7 +4911,7 @@
         <v>24.1814</v>
       </c>
       <c r="G179">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22.073399999999999</v>
       </c>
     </row>
@@ -4926,7 +4926,7 @@
         <v>100.63</v>
       </c>
       <c r="D180" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E180">
         <v>2.1515</v>
@@ -4935,7 +4935,7 @@
         <v>6.6393000000000004</v>
       </c>
       <c r="G180">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4.4878</v>
       </c>
     </row>
@@ -4950,7 +4950,7 @@
         <v>100.63</v>
       </c>
       <c r="D181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E181">
         <v>2.1297000000000001</v>
@@ -4959,7 +4959,7 @@
         <v>3.5952999999999999</v>
       </c>
       <c r="G181">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.4655999999999998</v>
       </c>
     </row>
@@ -4983,7 +4983,7 @@
         <v>17.29</v>
       </c>
       <c r="G182">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>1.9499999999999993</v>
       </c>
       <c r="N182" s="14"/>
@@ -5013,7 +5013,7 @@
         <v>17.84</v>
       </c>
       <c r="G183">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.5199999999999996</v>
       </c>
     </row>
@@ -5037,7 +5037,7 @@
         <v>17.43</v>
       </c>
       <c r="G184">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.1099999999999994</v>
       </c>
     </row>
@@ -5061,7 +5061,7 @@
         <v>17.45</v>
       </c>
       <c r="G185">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>2.129999999999999</v>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
         <v>37.6</v>
       </c>
       <c r="G186">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>22.26</v>
       </c>
     </row>
@@ -5100,7 +5100,7 @@
         <v>81.884099999999989</v>
       </c>
       <c r="D187" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E187">
         <v>2.1646999999999998</v>
@@ -5135,7 +5135,7 @@
         <v>11.987500000000001</v>
       </c>
       <c r="G188">
-        <f t="shared" ref="G188:G202" si="9">F188-E188</f>
+        <f t="shared" ref="G188:G202" si="11">F188-E188</f>
         <v>9.8474000000000004</v>
       </c>
     </row>
@@ -5150,7 +5150,7 @@
         <v>81.884100000000004</v>
       </c>
       <c r="D189" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E189">
         <v>2.1168</v>
@@ -5159,7 +5159,7 @@
         <v>37.1128</v>
       </c>
       <c r="G189">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>34.996000000000002</v>
       </c>
     </row>
@@ -5174,7 +5174,7 @@
         <v>81.884100000000004</v>
       </c>
       <c r="D190" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E190">
         <v>2.1760000000000002</v>
@@ -5183,7 +5183,7 @@
         <v>21.0595</v>
       </c>
       <c r="G190">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>18.883499999999998</v>
       </c>
     </row>
@@ -5198,7 +5198,7 @@
         <v>81.884100000000004</v>
       </c>
       <c r="D191" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E191">
         <v>2.1600999999999999</v>
@@ -5207,7 +5207,7 @@
         <v>6.0997000000000003</v>
       </c>
       <c r="G191">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.9396000000000004</v>
       </c>
       <c r="H191" s="9"/>
@@ -5230,7 +5230,7 @@
         <v>81.884100000000004</v>
       </c>
       <c r="D192" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E192">
         <v>2.1196000000000002</v>
@@ -5239,7 +5239,7 @@
         <v>3.3976999999999999</v>
       </c>
       <c r="G192">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>1.2780999999999998</v>
       </c>
     </row>
@@ -5287,7 +5287,7 @@
         <v>16.100000000000001</v>
       </c>
       <c r="G194">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.3999999999999986</v>
       </c>
     </row>
@@ -5311,7 +5311,7 @@
         <v>16.34</v>
       </c>
       <c r="G195">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.3500000000000014</v>
       </c>
     </row>
@@ -5335,7 +5335,7 @@
         <v>16.399999999999999</v>
       </c>
       <c r="G196">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.36000000000000298</v>
       </c>
     </row>
@@ -5359,7 +5359,7 @@
         <v>17.28</v>
       </c>
       <c r="G197">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.83999999999999986</v>
       </c>
     </row>
@@ -5383,7 +5383,7 @@
         <v>15.87</v>
       </c>
       <c r="G198">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-1.2000000000000011</v>
       </c>
       <c r="H198" s="9"/>
@@ -5408,7 +5408,7 @@
         <v>16.239999999999998</v>
       </c>
       <c r="G199">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.66000000000000014</v>
       </c>
     </row>
@@ -5432,7 +5432,7 @@
         <v>20.95</v>
       </c>
       <c r="G200">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>3.7399999999999984</v>
       </c>
     </row>
@@ -5456,7 +5456,7 @@
         <v>16.64</v>
       </c>
       <c r="G201">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>-0.41999999999999815</v>
       </c>
     </row>
@@ -5480,7 +5480,7 @@
         <v>31.2</v>
       </c>
       <c r="G202">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>13.969999999999999</v>
       </c>
     </row>
@@ -5730,42 +5730,6 @@
     </row>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="K205:L205"/>
-    <mergeCell ref="J2:L2"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="X34:Z34"/>
-    <mergeCell ref="X160:Y160"/>
-    <mergeCell ref="S34:U34"/>
-    <mergeCell ref="O227:Q227"/>
-    <mergeCell ref="P239:Q239"/>
-    <mergeCell ref="J212:L212"/>
-    <mergeCell ref="O212:Q212"/>
-    <mergeCell ref="K224:L224"/>
-    <mergeCell ref="A290:C290"/>
-    <mergeCell ref="E290:G290"/>
-    <mergeCell ref="J290:L290"/>
-    <mergeCell ref="O290:Q290"/>
-    <mergeCell ref="O259:Q259"/>
-    <mergeCell ref="P271:Q271"/>
-    <mergeCell ref="K272:L272"/>
-    <mergeCell ref="J274:L274"/>
-    <mergeCell ref="O274:Q274"/>
-    <mergeCell ref="J259:L259"/>
-    <mergeCell ref="P286:Q286"/>
-    <mergeCell ref="A322:C322"/>
-    <mergeCell ref="E322:G322"/>
-    <mergeCell ref="J322:L322"/>
-    <mergeCell ref="O322:Q322"/>
-    <mergeCell ref="P302:Q302"/>
-    <mergeCell ref="F303:G303"/>
-    <mergeCell ref="K303:L303"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="E306:G306"/>
-    <mergeCell ref="J306:L306"/>
-    <mergeCell ref="O306:Q306"/>
-    <mergeCell ref="P318:Q318"/>
     <mergeCell ref="P210:Q210"/>
     <mergeCell ref="O191:Q191"/>
     <mergeCell ref="F335:G335"/>
@@ -5780,6 +5744,42 @@
     <mergeCell ref="O242:Q242"/>
     <mergeCell ref="P225:Q225"/>
     <mergeCell ref="J227:L227"/>
+    <mergeCell ref="A322:C322"/>
+    <mergeCell ref="E322:G322"/>
+    <mergeCell ref="J322:L322"/>
+    <mergeCell ref="O322:Q322"/>
+    <mergeCell ref="P302:Q302"/>
+    <mergeCell ref="F303:G303"/>
+    <mergeCell ref="K303:L303"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="E306:G306"/>
+    <mergeCell ref="J306:L306"/>
+    <mergeCell ref="O306:Q306"/>
+    <mergeCell ref="P318:Q318"/>
+    <mergeCell ref="A290:C290"/>
+    <mergeCell ref="E290:G290"/>
+    <mergeCell ref="J290:L290"/>
+    <mergeCell ref="O290:Q290"/>
+    <mergeCell ref="O259:Q259"/>
+    <mergeCell ref="P271:Q271"/>
+    <mergeCell ref="K272:L272"/>
+    <mergeCell ref="J274:L274"/>
+    <mergeCell ref="O274:Q274"/>
+    <mergeCell ref="J259:L259"/>
+    <mergeCell ref="P286:Q286"/>
+    <mergeCell ref="O227:Q227"/>
+    <mergeCell ref="P239:Q239"/>
+    <mergeCell ref="J212:L212"/>
+    <mergeCell ref="O212:Q212"/>
+    <mergeCell ref="K224:L224"/>
+    <mergeCell ref="K205:L205"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="X34:Z34"/>
+    <mergeCell ref="X160:Y160"/>
+    <mergeCell ref="S34:U34"/>
     <mergeCell ref="X187:Y187"/>
     <mergeCell ref="T133:U133"/>
     <mergeCell ref="O134:P134"/>
